--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3423020728110941</v>
+        <v>0.3423020728113215</v>
       </c>
       <c r="D2">
-        <v>0.0968414944236855</v>
+        <v>0.09684149442357182</v>
       </c>
       <c r="E2">
-        <v>0.6483055278368326</v>
+        <v>0.64830552783679</v>
       </c>
       <c r="F2">
-        <v>3.249151423369682</v>
+        <v>3.249151423369653</v>
       </c>
       <c r="G2">
-        <v>2.693156312277949</v>
+        <v>2.693156312277893</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.73725394293132</v>
+        <v>23.73725394293115</v>
       </c>
       <c r="K2">
-        <v>0.3014572253372805</v>
+        <v>0.3014572253372663</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2841659645803958</v>
+        <v>0.2841659645799837</v>
       </c>
       <c r="D3">
-        <v>0.06213337682556386</v>
+        <v>0.06213337682555675</v>
       </c>
       <c r="E3">
-        <v>0.5351208057724293</v>
+        <v>0.5351208057724151</v>
       </c>
       <c r="F3">
-        <v>2.526539133645201</v>
+        <v>2.526539133645215</v>
       </c>
       <c r="G3">
-        <v>2.072393355457379</v>
+        <v>2.072393355457407</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.11042973599962</v>
+        <v>20.11042973599973</v>
       </c>
       <c r="K3">
-        <v>0.2483995189911141</v>
+        <v>0.2483995189910999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.251499390148993</v>
+        <v>0.2514993901491351</v>
       </c>
       <c r="D4">
-        <v>0.04585453145033824</v>
+        <v>0.04585453145024232</v>
       </c>
       <c r="E4">
-        <v>0.4718912104892752</v>
+        <v>0.4718912104892681</v>
       </c>
       <c r="F4">
         <v>2.15240397619111</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.00197096719876</v>
+        <v>18.00197096719864</v>
       </c>
       <c r="K4">
         <v>0.2188157989632842</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2387541102387161</v>
+        <v>0.2387541102385455</v>
       </c>
       <c r="D5">
-        <v>0.04015805258718785</v>
+        <v>0.04015805258729799</v>
       </c>
       <c r="E5">
-        <v>0.4472882053934839</v>
+        <v>0.4472882053934484</v>
       </c>
       <c r="F5">
-        <v>2.013053730514571</v>
+        <v>2.013053730514528</v>
       </c>
       <c r="G5">
-        <v>1.635809641608304</v>
+        <v>1.635809641608262</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.16467576238796</v>
+        <v>17.16467576238807</v>
       </c>
       <c r="K5">
-        <v>0.207314883973595</v>
+        <v>0.2073148839736021</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2366674660659527</v>
+        <v>0.2366674660662511</v>
       </c>
       <c r="D6">
-        <v>0.0392612697849124</v>
+        <v>0.03926126978490174</v>
       </c>
       <c r="E6">
-        <v>0.4432636712576468</v>
+        <v>0.4432636712576326</v>
       </c>
       <c r="F6">
-        <v>1.99060580676948</v>
+        <v>1.990605806769537</v>
       </c>
       <c r="G6">
-        <v>1.616832696073303</v>
+        <v>1.616832696073345</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>17.0267832061794</v>
       </c>
       <c r="K6">
-        <v>0.2054341076978297</v>
+        <v>0.2054341076978368</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2513254198873938</v>
+        <v>0.2513254198872232</v>
       </c>
       <c r="D7">
-        <v>0.04577426257908002</v>
+        <v>0.04577426257897699</v>
       </c>
       <c r="E7">
-        <v>0.4715551386232875</v>
+        <v>0.4715551386232519</v>
       </c>
       <c r="F7">
-        <v>2.150476273324372</v>
+        <v>2.150476273324387</v>
       </c>
       <c r="G7">
-        <v>1.75219984252152</v>
+        <v>1.752199842521506</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.99059875342465</v>
+        <v>17.99059875342476</v>
       </c>
       <c r="K7">
-        <v>0.218658660891208</v>
+        <v>0.2186586608912009</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3214864073887611</v>
+        <v>0.3214864073887327</v>
       </c>
       <c r="D8">
-        <v>0.08358914787383043</v>
+        <v>0.08358914787381977</v>
       </c>
       <c r="E8">
-        <v>0.6076784929921573</v>
+        <v>0.6076784929921288</v>
       </c>
       <c r="F8">
-        <v>2.98237057744042</v>
+        <v>2.982370577440349</v>
       </c>
       <c r="G8">
-        <v>2.463246420671226</v>
+        <v>2.463246420671183</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>22.4564879583848</v>
       </c>
       <c r="K8">
-        <v>0.2823969344281707</v>
+        <v>0.2823969344282062</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4985529150691264</v>
+        <v>0.4985529150691832</v>
       </c>
       <c r="D9">
-        <v>0.224472728357739</v>
+        <v>0.2244727283578456</v>
       </c>
       <c r="E9">
-        <v>0.957414222262102</v>
+        <v>0.9574142222621163</v>
       </c>
       <c r="F9">
-        <v>5.516052750665466</v>
+        <v>5.516052750665381</v>
       </c>
       <c r="G9">
-        <v>4.671225388942887</v>
+        <v>4.671225388942844</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>32.7584068887864</v>
+        <v>32.75840688878645</v>
       </c>
       <c r="K9">
-        <v>0.4471147852364723</v>
+        <v>0.4471147852364368</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7127379317713576</v>
+        <v>0.7127379317710449</v>
       </c>
       <c r="D10">
-        <v>0.4775496837263091</v>
+        <v>0.4775496837262665</v>
       </c>
       <c r="E10">
-        <v>1.396644052310918</v>
+        <v>1.396644052310933</v>
       </c>
       <c r="F10">
         <v>9.310730947829711</v>
       </c>
       <c r="G10">
-        <v>8.044261761817225</v>
+        <v>8.04426176181731</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>43.4994564371662</v>
+        <v>43.49945643716615</v>
       </c>
       <c r="K10">
-        <v>0.656480822930213</v>
+        <v>0.6564808229301988</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7127379317713576</v>
+        <v>0.7127379317710449</v>
       </c>
       <c r="D11">
-        <v>0.4775496837263091</v>
+        <v>0.4775496837262665</v>
       </c>
       <c r="E11">
-        <v>1.396644052310918</v>
+        <v>1.396644052310933</v>
       </c>
       <c r="F11">
         <v>9.310730947829711</v>
       </c>
       <c r="G11">
-        <v>8.044261761817225</v>
+        <v>8.04426176181731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>43.4994564371662</v>
+        <v>43.49945643716615</v>
       </c>
       <c r="K11">
-        <v>0.656480822930213</v>
+        <v>0.6564808229301988</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7127379317713576</v>
+        <v>0.7127379317710449</v>
       </c>
       <c r="D12">
-        <v>0.4775496837263091</v>
+        <v>0.4775496837262665</v>
       </c>
       <c r="E12">
-        <v>1.396644052310918</v>
+        <v>1.396644052310933</v>
       </c>
       <c r="F12">
         <v>9.310730947829711</v>
       </c>
       <c r="G12">
-        <v>8.044261761817225</v>
+        <v>8.04426176181731</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>43.4994564371662</v>
+        <v>43.49945643716615</v>
       </c>
       <c r="K12">
-        <v>0.656480822930213</v>
+        <v>0.6564808229301988</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7127379317713576</v>
+        <v>0.7127379317710449</v>
       </c>
       <c r="D13">
-        <v>0.4775496837263091</v>
+        <v>0.4775496837262665</v>
       </c>
       <c r="E13">
-        <v>1.396644052310918</v>
+        <v>1.396644052310933</v>
       </c>
       <c r="F13">
         <v>9.310730947829711</v>
       </c>
       <c r="G13">
-        <v>8.044261761817225</v>
+        <v>8.04426176181731</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.4994564371662</v>
+        <v>43.49945643716615</v>
       </c>
       <c r="K13">
-        <v>0.656480822930213</v>
+        <v>0.6564808229301988</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.7127379317713576</v>
+        <v>0.7127379317710449</v>
       </c>
       <c r="D14">
-        <v>0.4775496837263091</v>
+        <v>0.4775496837262665</v>
       </c>
       <c r="E14">
-        <v>1.396644052310918</v>
+        <v>1.396644052310933</v>
       </c>
       <c r="F14">
         <v>9.310730947829711</v>
       </c>
       <c r="G14">
-        <v>8.044261761817225</v>
+        <v>8.04426176181731</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>43.4994564371662</v>
+        <v>43.49945643716615</v>
       </c>
       <c r="K14">
-        <v>0.656480822930213</v>
+        <v>0.6564808229301988</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.7127379317713576</v>
+        <v>0.9130160295710539</v>
       </c>
       <c r="D15">
-        <v>0.4775496837263091</v>
+        <v>0.7952375188423915</v>
       </c>
       <c r="E15">
-        <v>1.396644052310918</v>
+        <v>1.832030211555249</v>
       </c>
       <c r="F15">
-        <v>9.310730947829711</v>
+        <v>13.50235671502784</v>
       </c>
       <c r="G15">
-        <v>8.044261761817225</v>
+        <v>11.82682611952939</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>43.4994564371662</v>
+        <v>51.79533076653962</v>
       </c>
       <c r="K15">
-        <v>0.656480822930213</v>
+        <v>0.867784085147278</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7127379317713576</v>
+        <v>0.7036013632044558</v>
       </c>
       <c r="D16">
-        <v>0.4775496837263091</v>
+        <v>0.464927191670121</v>
       </c>
       <c r="E16">
-        <v>1.396644052310918</v>
+        <v>1.377440121801015</v>
       </c>
       <c r="F16">
-        <v>9.310730947829711</v>
+        <v>9.133755830569044</v>
       </c>
       <c r="G16">
-        <v>8.044261761817225</v>
+        <v>7.885710030299691</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.4994564371662</v>
+        <v>43.07973518864674</v>
       </c>
       <c r="K16">
-        <v>0.656480822930213</v>
+        <v>0.6472563573190726</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7127379317713576</v>
+        <v>0.6345436031712381</v>
       </c>
       <c r="D17">
-        <v>0.4775496837263091</v>
+        <v>0.3747870587762634</v>
       </c>
       <c r="E17">
-        <v>1.396644052310918</v>
+        <v>1.23377013573095</v>
       </c>
       <c r="F17">
-        <v>9.310730947829711</v>
+        <v>7.838589496656482</v>
       </c>
       <c r="G17">
-        <v>8.044261761817225</v>
+        <v>6.728714776378524</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>43.4994564371662</v>
+        <v>39.7952918719028</v>
       </c>
       <c r="K17">
-        <v>0.656480822930213</v>
+        <v>0.5784649362459078</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7127379317713576</v>
+        <v>0.6010571663074415</v>
       </c>
       <c r="D18">
-        <v>0.4775496837263091</v>
+        <v>0.3344241665164347</v>
       </c>
       <c r="E18">
-        <v>1.396644052310918</v>
+        <v>1.164970885219333</v>
       </c>
       <c r="F18">
-        <v>9.310730947829711</v>
+        <v>7.238112080540418</v>
       </c>
       <c r="G18">
-        <v>8.044261761817225</v>
+        <v>6.194455235539309</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>43.4994564371662</v>
+        <v>38.13217295336221</v>
       </c>
       <c r="K18">
-        <v>0.656480822930213</v>
+        <v>0.5456519000920252</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7127379317713576</v>
+        <v>0.5904574572143702</v>
       </c>
       <c r="D19">
-        <v>0.4775496837263091</v>
+        <v>0.3221032130236878</v>
       </c>
       <c r="E19">
-        <v>1.396644052310918</v>
+        <v>1.14330193907972</v>
       </c>
       <c r="F19">
-        <v>9.310730947829711</v>
+        <v>7.05186363093506</v>
       </c>
       <c r="G19">
-        <v>8.044261761817225</v>
+        <v>6.02904793851404</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>43.4994564371662</v>
+        <v>37.59622365698044</v>
       </c>
       <c r="K19">
-        <v>0.656480822930213</v>
+        <v>0.5353334279089168</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7127379317713576</v>
+        <v>0.6411539931921197</v>
       </c>
       <c r="D20">
-        <v>0.4775496837263091</v>
+        <v>0.3830131672327894</v>
       </c>
       <c r="E20">
-        <v>1.396644052310918</v>
+        <v>1.247415323000197</v>
       </c>
       <c r="F20">
-        <v>9.310730947829711</v>
+        <v>7.959277067465138</v>
       </c>
       <c r="G20">
-        <v>8.044261761817225</v>
+        <v>6.83626619769143</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>43.4994564371662</v>
+        <v>40.11818840761663</v>
       </c>
       <c r="K20">
-        <v>0.656480822930213</v>
+        <v>0.5849824596230562</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7127379317713576</v>
+        <v>0.6411539931921197</v>
       </c>
       <c r="D21">
-        <v>0.4775496837263091</v>
+        <v>0.3830131672327894</v>
       </c>
       <c r="E21">
-        <v>1.396644052310918</v>
+        <v>1.247415323000197</v>
       </c>
       <c r="F21">
-        <v>9.310730947829711</v>
+        <v>7.959277067465138</v>
       </c>
       <c r="G21">
-        <v>8.044261761817225</v>
+        <v>6.83626619769143</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>43.4994564371662</v>
+        <v>40.11818840761663</v>
       </c>
       <c r="K21">
-        <v>0.656480822930213</v>
+        <v>0.5849824596230562</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7127379317713576</v>
+        <v>0.6411539931921197</v>
       </c>
       <c r="D22">
-        <v>0.4775496837263091</v>
+        <v>0.3830131672327894</v>
       </c>
       <c r="E22">
-        <v>1.396644052310918</v>
+        <v>1.247415323000197</v>
       </c>
       <c r="F22">
-        <v>9.310730947829711</v>
+        <v>7.959277067465138</v>
       </c>
       <c r="G22">
-        <v>8.044261761817225</v>
+        <v>6.83626619769143</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>43.4994564371662</v>
+        <v>40.11818840761663</v>
       </c>
       <c r="K22">
-        <v>0.656480822930213</v>
+        <v>0.5849824596230562</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7127379317713576</v>
+        <v>0.6411539931921197</v>
       </c>
       <c r="D23">
-        <v>0.4775496837263091</v>
+        <v>0.3830131672327894</v>
       </c>
       <c r="E23">
-        <v>1.396644052310918</v>
+        <v>1.247415323000197</v>
       </c>
       <c r="F23">
-        <v>9.310730947829711</v>
+        <v>7.959277067465138</v>
       </c>
       <c r="G23">
-        <v>8.044261761817225</v>
+        <v>6.83626619769143</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>43.4994564371662</v>
+        <v>40.11818840761663</v>
       </c>
       <c r="K23">
-        <v>0.656480822930213</v>
+        <v>0.5849824596230562</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7127379317713576</v>
+        <v>0.6411539931921197</v>
       </c>
       <c r="D24">
-        <v>0.4775496837263091</v>
+        <v>0.3830131672327894</v>
       </c>
       <c r="E24">
-        <v>1.396644052310918</v>
+        <v>1.247415323000197</v>
       </c>
       <c r="F24">
-        <v>9.310730947829711</v>
+        <v>7.959277067465138</v>
       </c>
       <c r="G24">
-        <v>8.044261761817225</v>
+        <v>6.83626619769143</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>43.4994564371662</v>
+        <v>40.11818840761663</v>
       </c>
       <c r="K24">
-        <v>0.656480822930213</v>
+        <v>0.5849824596230562</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7127379317713576</v>
+        <v>0.6411539931921197</v>
       </c>
       <c r="D25">
-        <v>0.4775496837263091</v>
+        <v>0.3830131672327894</v>
       </c>
       <c r="E25">
-        <v>1.396644052310918</v>
+        <v>1.247415323000197</v>
       </c>
       <c r="F25">
-        <v>9.310730947829711</v>
+        <v>7.959277067465138</v>
       </c>
       <c r="G25">
-        <v>8.044261761817225</v>
+        <v>6.83626619769143</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>43.4994564371662</v>
+        <v>40.11818840761663</v>
       </c>
       <c r="K25">
-        <v>0.656480822930213</v>
+        <v>0.5849824596230562</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3423020728113215</v>
+        <v>0.3423020728110941</v>
       </c>
       <c r="D2">
-        <v>0.09684149442357182</v>
+        <v>0.0968414944236855</v>
       </c>
       <c r="E2">
-        <v>0.64830552783679</v>
+        <v>0.6483055278368326</v>
       </c>
       <c r="F2">
-        <v>3.249151423369653</v>
+        <v>3.249151423369682</v>
       </c>
       <c r="G2">
-        <v>2.693156312277893</v>
+        <v>2.693156312277949</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.73725394293115</v>
+        <v>23.73725394293132</v>
       </c>
       <c r="K2">
-        <v>0.3014572253372663</v>
+        <v>0.3014572253372805</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2841659645799837</v>
+        <v>0.2841659645803958</v>
       </c>
       <c r="D3">
-        <v>0.06213337682555675</v>
+        <v>0.06213337682556386</v>
       </c>
       <c r="E3">
-        <v>0.5351208057724151</v>
+        <v>0.5351208057724293</v>
       </c>
       <c r="F3">
-        <v>2.526539133645215</v>
+        <v>2.526539133645201</v>
       </c>
       <c r="G3">
-        <v>2.072393355457407</v>
+        <v>2.072393355457379</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.11042973599973</v>
+        <v>20.11042973599962</v>
       </c>
       <c r="K3">
-        <v>0.2483995189910999</v>
+        <v>0.2483995189911141</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2514993901491351</v>
+        <v>0.251499390148993</v>
       </c>
       <c r="D4">
-        <v>0.04585453145024232</v>
+        <v>0.04585453145033824</v>
       </c>
       <c r="E4">
-        <v>0.4718912104892681</v>
+        <v>0.4718912104892752</v>
       </c>
       <c r="F4">
         <v>2.15240397619111</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.00197096719864</v>
+        <v>18.00197096719876</v>
       </c>
       <c r="K4">
         <v>0.2188157989632842</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2387541102385455</v>
+        <v>0.2387541102387161</v>
       </c>
       <c r="D5">
-        <v>0.04015805258729799</v>
+        <v>0.04015805258718785</v>
       </c>
       <c r="E5">
-        <v>0.4472882053934484</v>
+        <v>0.4472882053934839</v>
       </c>
       <c r="F5">
-        <v>2.013053730514528</v>
+        <v>2.013053730514571</v>
       </c>
       <c r="G5">
-        <v>1.635809641608262</v>
+        <v>1.635809641608304</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.16467576238807</v>
+        <v>17.16467576238796</v>
       </c>
       <c r="K5">
-        <v>0.2073148839736021</v>
+        <v>0.207314883973595</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2366674660662511</v>
+        <v>0.2366674660659527</v>
       </c>
       <c r="D6">
-        <v>0.03926126978490174</v>
+        <v>0.0392612697849124</v>
       </c>
       <c r="E6">
-        <v>0.4432636712576326</v>
+        <v>0.4432636712576468</v>
       </c>
       <c r="F6">
-        <v>1.990605806769537</v>
+        <v>1.99060580676948</v>
       </c>
       <c r="G6">
-        <v>1.616832696073345</v>
+        <v>1.616832696073303</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>17.0267832061794</v>
       </c>
       <c r="K6">
-        <v>0.2054341076978368</v>
+        <v>0.2054341076978297</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2513254198872232</v>
+        <v>0.2513254198873938</v>
       </c>
       <c r="D7">
-        <v>0.04577426257897699</v>
+        <v>0.04577426257908002</v>
       </c>
       <c r="E7">
-        <v>0.4715551386232519</v>
+        <v>0.4715551386232875</v>
       </c>
       <c r="F7">
-        <v>2.150476273324387</v>
+        <v>2.150476273324372</v>
       </c>
       <c r="G7">
-        <v>1.752199842521506</v>
+        <v>1.75219984252152</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.99059875342476</v>
+        <v>17.99059875342465</v>
       </c>
       <c r="K7">
-        <v>0.2186586608912009</v>
+        <v>0.218658660891208</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3214864073887327</v>
+        <v>0.3214864073887611</v>
       </c>
       <c r="D8">
-        <v>0.08358914787381977</v>
+        <v>0.08358914787383043</v>
       </c>
       <c r="E8">
-        <v>0.6076784929921288</v>
+        <v>0.6076784929921573</v>
       </c>
       <c r="F8">
-        <v>2.982370577440349</v>
+        <v>2.98237057744042</v>
       </c>
       <c r="G8">
-        <v>2.463246420671183</v>
+        <v>2.463246420671226</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>22.4564879583848</v>
       </c>
       <c r="K8">
-        <v>0.2823969344282062</v>
+        <v>0.2823969344281707</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4985529150691832</v>
+        <v>0.4985529150691264</v>
       </c>
       <c r="D9">
-        <v>0.2244727283578456</v>
+        <v>0.224472728357739</v>
       </c>
       <c r="E9">
-        <v>0.9574142222621163</v>
+        <v>0.957414222262102</v>
       </c>
       <c r="F9">
-        <v>5.516052750665381</v>
+        <v>5.516052750665466</v>
       </c>
       <c r="G9">
-        <v>4.671225388942844</v>
+        <v>4.671225388942887</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>32.75840688878645</v>
+        <v>32.7584068887864</v>
       </c>
       <c r="K9">
-        <v>0.4471147852364368</v>
+        <v>0.4471147852364723</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7127379317710449</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D10">
-        <v>0.4775496837262665</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E10">
-        <v>1.396644052310933</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F10">
         <v>9.310730947829711</v>
       </c>
       <c r="G10">
-        <v>8.04426176181731</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>43.49945643716615</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K10">
-        <v>0.6564808229301988</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7127379317710449</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D11">
-        <v>0.4775496837262665</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E11">
-        <v>1.396644052310933</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F11">
         <v>9.310730947829711</v>
       </c>
       <c r="G11">
-        <v>8.04426176181731</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>43.49945643716615</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K11">
-        <v>0.6564808229301988</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7127379317710449</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D12">
-        <v>0.4775496837262665</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E12">
-        <v>1.396644052310933</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F12">
         <v>9.310730947829711</v>
       </c>
       <c r="G12">
-        <v>8.04426176181731</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>43.49945643716615</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K12">
-        <v>0.6564808229301988</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7127379317710449</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D13">
-        <v>0.4775496837262665</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E13">
-        <v>1.396644052310933</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F13">
         <v>9.310730947829711</v>
       </c>
       <c r="G13">
-        <v>8.04426176181731</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.49945643716615</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K13">
-        <v>0.6564808229301988</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.7127379317710449</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D14">
-        <v>0.4775496837262665</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E14">
-        <v>1.396644052310933</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F14">
         <v>9.310730947829711</v>
       </c>
       <c r="G14">
-        <v>8.04426176181731</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>43.49945643716615</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K14">
-        <v>0.6564808229301988</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.9130160295710539</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D15">
-        <v>0.7952375188423915</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E15">
-        <v>1.832030211555249</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F15">
-        <v>13.50235671502784</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G15">
-        <v>11.82682611952939</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>51.79533076653962</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K15">
-        <v>0.867784085147278</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7036013632044558</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D16">
-        <v>0.464927191670121</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E16">
-        <v>1.377440121801015</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F16">
-        <v>9.133755830569044</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G16">
-        <v>7.885710030299691</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.07973518864674</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K16">
-        <v>0.6472563573190726</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6345436031712381</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D17">
-        <v>0.3747870587762634</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E17">
-        <v>1.23377013573095</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F17">
-        <v>7.838589496656482</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G17">
-        <v>6.728714776378524</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>39.7952918719028</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K17">
-        <v>0.5784649362459078</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6010571663074415</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D18">
-        <v>0.3344241665164347</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E18">
-        <v>1.164970885219333</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F18">
-        <v>7.238112080540418</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G18">
-        <v>6.194455235539309</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>38.13217295336221</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K18">
-        <v>0.5456519000920252</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5904574572143702</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D19">
-        <v>0.3221032130236878</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E19">
-        <v>1.14330193907972</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F19">
-        <v>7.05186363093506</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G19">
-        <v>6.02904793851404</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>37.59622365698044</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K19">
-        <v>0.5353334279089168</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6411539931921197</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D20">
-        <v>0.3830131672327894</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E20">
-        <v>1.247415323000197</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F20">
-        <v>7.959277067465138</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G20">
-        <v>6.83626619769143</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>40.11818840761663</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K20">
-        <v>0.5849824596230562</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6411539931921197</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D21">
-        <v>0.3830131672327894</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E21">
-        <v>1.247415323000197</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F21">
-        <v>7.959277067465138</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G21">
-        <v>6.83626619769143</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>40.11818840761663</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K21">
-        <v>0.5849824596230562</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6411539931921197</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D22">
-        <v>0.3830131672327894</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E22">
-        <v>1.247415323000197</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F22">
-        <v>7.959277067465138</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G22">
-        <v>6.83626619769143</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>40.11818840761663</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K22">
-        <v>0.5849824596230562</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6411539931921197</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D23">
-        <v>0.3830131672327894</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E23">
-        <v>1.247415323000197</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F23">
-        <v>7.959277067465138</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G23">
-        <v>6.83626619769143</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>40.11818840761663</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K23">
-        <v>0.5849824596230562</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6411539931921197</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D24">
-        <v>0.3830131672327894</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E24">
-        <v>1.247415323000197</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F24">
-        <v>7.959277067465138</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G24">
-        <v>6.83626619769143</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>40.11818840761663</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K24">
-        <v>0.5849824596230562</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.6411539931921197</v>
+        <v>0.7127379317713576</v>
       </c>
       <c r="D25">
-        <v>0.3830131672327894</v>
+        <v>0.4775496837263091</v>
       </c>
       <c r="E25">
-        <v>1.247415323000197</v>
+        <v>1.396644052310918</v>
       </c>
       <c r="F25">
-        <v>7.959277067465138</v>
+        <v>9.310730947829711</v>
       </c>
       <c r="G25">
-        <v>6.83626619769143</v>
+        <v>8.044261761817225</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>40.11818840761663</v>
+        <v>43.4994564371662</v>
       </c>
       <c r="K25">
-        <v>0.5849824596230562</v>
+        <v>0.656480822930213</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3423020728110941</v>
+        <v>0.3421862788143812</v>
       </c>
       <c r="D2">
-        <v>0.0968414944236855</v>
+        <v>0.09640138085759276</v>
       </c>
       <c r="E2">
-        <v>0.6483055278368326</v>
+        <v>0.6480754109436688</v>
       </c>
       <c r="F2">
-        <v>3.249151423369682</v>
+        <v>3.241546250162372</v>
       </c>
       <c r="G2">
-        <v>2.693156312277949</v>
+        <v>0.9413357241260201</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.746821055600336</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.73725394293132</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3014572253372805</v>
+        <v>23.73183069680766</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3013486958333829</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2841659645803958</v>
+        <v>0.2840948434913457</v>
       </c>
       <c r="D3">
-        <v>0.06213337682556386</v>
+        <v>0.06183488247246061</v>
       </c>
       <c r="E3">
-        <v>0.5351208057724293</v>
+        <v>0.5349804455700706</v>
       </c>
       <c r="F3">
-        <v>2.526539133645201</v>
+        <v>2.520886014346061</v>
       </c>
       <c r="G3">
-        <v>2.072393355457379</v>
+        <v>0.7238241021429275</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.345967587322605</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.11042973599962</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2483995189911141</v>
+        <v>20.1070085310468</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2483334812651705</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.251499390148993</v>
+        <v>0.2514476573309139</v>
       </c>
       <c r="D4">
-        <v>0.04585453145033824</v>
+        <v>0.04562121885975401</v>
       </c>
       <c r="E4">
-        <v>0.4718912104892752</v>
+        <v>0.4717894277662893</v>
       </c>
       <c r="F4">
-        <v>2.15240397619111</v>
+        <v>2.147692608793747</v>
       </c>
       <c r="G4">
-        <v>1.75383505704697</v>
+        <v>0.6112921874396449</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.141125416403014</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.00197096719876</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2188157989632842</v>
+        <v>17.99944459618331</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2187679661874853</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2387541102387161</v>
+        <v>0.2387089649966185</v>
       </c>
       <c r="D5">
-        <v>0.04015805258718785</v>
+        <v>0.03994757488703016</v>
       </c>
       <c r="E5">
-        <v>0.4472882053934839</v>
+        <v>0.4471994709107747</v>
       </c>
       <c r="F5">
-        <v>2.013053730514571</v>
+        <v>2.008682447133353</v>
       </c>
       <c r="G5">
-        <v>1.635809641608304</v>
+        <v>0.569386601225716</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.065438261117308</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.16467576238796</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.207314883973595</v>
+        <v>17.16245811324166</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2072731994631916</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2366674660659527</v>
+        <v>0.2366233499392365</v>
       </c>
       <c r="D6">
-        <v>0.0392612697849124</v>
+        <v>0.03905439554825918</v>
       </c>
       <c r="E6">
-        <v>0.4432636712576468</v>
+        <v>0.4431769723145038</v>
       </c>
       <c r="F6">
-        <v>1.99060580676948</v>
+        <v>1.986288795457895</v>
       </c>
       <c r="G6">
-        <v>1.616832696073303</v>
+        <v>0.5626361632605068</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.053281066443674</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.0267832061794</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2054341076978297</v>
+        <v>17.02461403026865</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2053933818697224</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2513254198873938</v>
+        <v>0.2512737805373177</v>
       </c>
       <c r="D7">
-        <v>0.04577426257908002</v>
+        <v>0.04554127129619445</v>
       </c>
       <c r="E7">
-        <v>0.4715551386232875</v>
+        <v>0.4714535412548386</v>
       </c>
       <c r="F7">
-        <v>2.150476273324372</v>
+        <v>2.145769648499183</v>
       </c>
       <c r="G7">
-        <v>1.75219984252152</v>
+        <v>0.6107124693690054</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.140075934456263</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.99059875342465</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.218658660891208</v>
+        <v>17.98807674454588</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2186109154880285</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3214864073887611</v>
+        <v>0.3213882470131182</v>
       </c>
       <c r="D8">
-        <v>0.08358914787383043</v>
+        <v>0.08320374486153881</v>
       </c>
       <c r="E8">
-        <v>0.6076784929921573</v>
+        <v>0.6074839388786017</v>
       </c>
       <c r="F8">
-        <v>2.98237057744042</v>
+        <v>2.975508060799257</v>
       </c>
       <c r="G8">
-        <v>2.463246420671226</v>
+        <v>0.8610027514700533</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.598148105877954</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.4564879583848</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2823969344281707</v>
+        <v>22.45184650393514</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2823052611815982</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4985529150691264</v>
+        <v>0.4982226542025501</v>
       </c>
       <c r="D9">
-        <v>0.224472728357739</v>
+        <v>0.223436177594877</v>
       </c>
       <c r="E9">
-        <v>0.957414222262102</v>
+        <v>0.9567414029962151</v>
       </c>
       <c r="F9">
-        <v>5.516052750665466</v>
+        <v>5.500772887361194</v>
       </c>
       <c r="G9">
-        <v>4.671225388942887</v>
+        <v>1.625467028356084</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.031871939696259</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>32.7584068887864</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4471147852364723</v>
+        <v>32.74400413177972</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4467948625487139</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D10">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E10">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F10">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G10">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D11">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E11">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F11">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G11">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D12">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E12">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F12">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G12">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D13">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E13">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F13">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G13">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D14">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E14">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F14">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G14">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D15">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E15">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F15">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G15">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D16">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E16">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F16">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G16">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D17">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E17">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F17">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G17">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D18">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E18">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F18">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G18">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D19">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E19">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F19">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G19">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D20">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E20">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F20">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G20">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D21">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E21">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F21">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G21">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D22">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E22">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F22">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G22">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D23">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E23">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F23">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G23">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D24">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E24">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F24">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G24">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7127379317713576</v>
+        <v>0.7115604750903799</v>
       </c>
       <c r="D25">
-        <v>0.4775496837263091</v>
+        <v>0.4745546443649218</v>
       </c>
       <c r="E25">
-        <v>1.396644052310918</v>
+        <v>1.394130780901179</v>
       </c>
       <c r="F25">
-        <v>9.310730947829711</v>
+        <v>9.271488349783027</v>
       </c>
       <c r="G25">
-        <v>8.044261761817225</v>
+        <v>2.774627792736425</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.230812326873206</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>43.4994564371662</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.656480822930213</v>
+        <v>43.45315857092277</v>
       </c>
       <c r="L25">
+        <v>0.6552681232213686</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3421862788143812</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09640138085759276</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6480754109436688</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.241546250162372</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9413357241260201</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.746821055600336</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +448,22 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.73183069680766</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3013486958333829</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2840948434913457</v>
+        <v>0.1791269830972908</v>
       </c>
       <c r="D3">
-        <v>0.06183488247246061</v>
+        <v>2.3751878143471</v>
       </c>
       <c r="E3">
-        <v>0.5349804455700706</v>
+        <v>0.6097512781298846</v>
       </c>
       <c r="F3">
-        <v>2.520886014346061</v>
+        <v>19.95156204245006</v>
       </c>
       <c r="G3">
-        <v>0.7238241021429275</v>
+        <v>0.0005618999334884145</v>
       </c>
       <c r="H3">
-        <v>1.345967587322605</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1223098151142779</v>
       </c>
       <c r="K3">
-        <v>20.1070085310468</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2483334812651705</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.58146860323762</v>
+      </c>
+      <c r="N3">
+        <v>1.215032954235838</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2514476573309139</v>
+        <v>0.1479336542039817</v>
       </c>
       <c r="D4">
-        <v>0.04562121885975401</v>
+        <v>1.9535302634103</v>
       </c>
       <c r="E4">
-        <v>0.4717894277662893</v>
+        <v>0.5079266410519452</v>
       </c>
       <c r="F4">
-        <v>2.147692608793747</v>
+        <v>16.62027107686401</v>
       </c>
       <c r="G4">
-        <v>0.6112921874396449</v>
+        <v>0.0006140012523056658</v>
       </c>
       <c r="H4">
-        <v>1.141125416403014</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1081718002314815</v>
       </c>
       <c r="K4">
-        <v>17.99944459618331</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2187679661874853</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>10.67706471100692</v>
+      </c>
+      <c r="N4">
+        <v>1.199092792305748</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2387089649966185</v>
+        <v>0.1374124909109611</v>
       </c>
       <c r="D5">
-        <v>0.03994757488703016</v>
+        <v>1.812471977222401</v>
       </c>
       <c r="E5">
-        <v>0.4471994709107747</v>
+        <v>0.4732916235534717</v>
       </c>
       <c r="F5">
-        <v>2.008682447133353</v>
+        <v>15.51733543084907</v>
       </c>
       <c r="G5">
-        <v>0.569386601225716</v>
+        <v>0.0006325777832230503</v>
       </c>
       <c r="H5">
-        <v>1.065438261117308</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1031594894455807</v>
       </c>
       <c r="K5">
-        <v>17.16245811324166</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2072731994631916</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.01915263272821</v>
+      </c>
+      <c r="N5">
+        <v>1.190329755194924</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2366233499392365</v>
+        <v>0.1357529677364653</v>
       </c>
       <c r="D6">
-        <v>0.03905439554825918</v>
+        <v>1.790276272792426</v>
       </c>
       <c r="E6">
-        <v>0.4431769723145038</v>
+        <v>0.4678127354341868</v>
       </c>
       <c r="F6">
-        <v>1.986288795457895</v>
+        <v>15.34443337035111</v>
       </c>
       <c r="G6">
-        <v>0.5626361632605068</v>
+        <v>0.0006355597749530431</v>
       </c>
       <c r="H6">
-        <v>1.053281066443674</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1023564702908928</v>
       </c>
       <c r="K6">
-        <v>17.02461403026865</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2053933818697224</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9.914645841553778</v>
+      </c>
+      <c r="N6">
+        <v>1.188793867752651</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2512737805373177</v>
+        <v>0.147785184224432</v>
       </c>
       <c r="D7">
-        <v>0.04554127129619445</v>
+        <v>1.951535632842649</v>
       </c>
       <c r="E7">
-        <v>0.4714535412548386</v>
+        <v>0.5074390408457319</v>
       </c>
       <c r="F7">
-        <v>2.145769648499183</v>
+        <v>16.60462834611405</v>
       </c>
       <c r="G7">
-        <v>0.6107124693690054</v>
+        <v>0.0006142595795504234</v>
       </c>
       <c r="H7">
-        <v>1.140075934456263</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.108101988871752</v>
       </c>
       <c r="K7">
-        <v>17.98807674454588</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2186109154880285</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10.66783604811519</v>
+      </c>
+      <c r="N7">
+        <v>1.198980905962117</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3213882470131182</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D8">
-        <v>0.08320374486153881</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E8">
-        <v>0.6074839388786017</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F8">
-        <v>2.975508060799257</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G8">
-        <v>0.8610027514700533</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H8">
-        <v>1.598148105877954</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K8">
-        <v>22.45184650393514</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2823052611815982</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N8">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4982226542025501</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D9">
-        <v>0.223436177594877</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E9">
-        <v>0.9567414029962151</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F9">
-        <v>5.500772887361194</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G9">
-        <v>1.625467028356084</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H9">
-        <v>3.031871939696259</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K9">
-        <v>32.74400413177972</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4467948625487139</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N9">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D10">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E10">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F10">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G10">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H10">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K10">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N10">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D11">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E11">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F11">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G11">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H11">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K11">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N11">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D12">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E12">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F12">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G12">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H12">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K12">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N12">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D13">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E13">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F13">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G13">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H13">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K13">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N13">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D14">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E14">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F14">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G14">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H14">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K14">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N14">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D15">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E15">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F15">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G15">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H15">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K15">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N15">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D16">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E16">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F16">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G16">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H16">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K16">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N16">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D17">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E17">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F17">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G17">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H17">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K17">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N17">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D18">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E18">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F18">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G18">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H18">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K18">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N18">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D19">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E19">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F19">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G19">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H19">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K19">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N19">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D20">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E20">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F20">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G20">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H20">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K20">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N20">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D21">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E21">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F21">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G21">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H21">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K21">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N21">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D22">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E22">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F22">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G22">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H22">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K22">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N22">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D23">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E23">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F23">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G23">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H23">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K23">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N23">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D24">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E24">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F24">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G24">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H24">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K24">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N24">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7115604750903799</v>
+        <v>0.2334044381018572</v>
       </c>
       <c r="D25">
-        <v>0.4745546443649218</v>
+        <v>3.121638320836212</v>
       </c>
       <c r="E25">
-        <v>1.394130780901179</v>
+        <v>0.7850769359750274</v>
       </c>
       <c r="F25">
-        <v>9.271488349783027</v>
+        <v>25.92016942492955</v>
       </c>
       <c r="G25">
-        <v>2.774627792736425</v>
+        <v>0.0004798354473658395</v>
       </c>
       <c r="H25">
-        <v>5.230812326873206</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1449175249560071</v>
       </c>
       <c r="K25">
-        <v>43.45315857092277</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6552681232213686</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>15.73701983771619</v>
+      </c>
+      <c r="N25">
+        <v>1.206738199729756</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1681081456022469</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.116721536175362</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1125710402688007</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.221309456451735</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.932675541809317</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.367069958455943</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.661289689766463</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3.274507645294165</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1791269830972908</v>
+        <v>0.1430534434737041</v>
       </c>
       <c r="D3">
-        <v>2.3751878143471</v>
+        <v>0.0979473363209209</v>
       </c>
       <c r="E3">
-        <v>0.6097512781298846</v>
+        <v>0.1030413118344562</v>
       </c>
       <c r="F3">
-        <v>19.95156204245006</v>
+        <v>3.588902994312463</v>
       </c>
       <c r="G3">
-        <v>0.0005618999334884145</v>
+        <v>4.183869128067329</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.021203468864456</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1223098151142779</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.58146860323762</v>
+        <v>4.009935246620572</v>
       </c>
       <c r="N3">
-        <v>1.215032954235838</v>
+        <v>2.927995784426685</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1479336542039817</v>
+        <v>0.1282054663266905</v>
       </c>
       <c r="D4">
-        <v>1.9535302634103</v>
+        <v>0.08705814728379124</v>
       </c>
       <c r="E4">
-        <v>0.5079266410519452</v>
+        <v>0.09706127259525132</v>
       </c>
       <c r="F4">
-        <v>16.62027107686401</v>
+        <v>3.217086044849538</v>
       </c>
       <c r="G4">
-        <v>0.0006140012523056658</v>
+        <v>3.743527417286657</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.818476763050256</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1081718002314815</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.67706471100692</v>
+        <v>3.617777394013899</v>
       </c>
       <c r="N4">
-        <v>1.199092792305748</v>
+        <v>2.716510388689784</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1374124909109611</v>
+        <v>0.1222657221227621</v>
       </c>
       <c r="D5">
-        <v>1.812471977222401</v>
+        <v>0.08275318913738516</v>
       </c>
       <c r="E5">
-        <v>0.4732916235534717</v>
+        <v>0.09459810592906237</v>
       </c>
       <c r="F5">
-        <v>15.51733543084907</v>
+        <v>3.069012282070872</v>
       </c>
       <c r="G5">
-        <v>0.0006325777832230503</v>
+        <v>3.568132678463456</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.737888272484554</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1031594894455807</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.01915263272821</v>
+        <v>3.459542149461825</v>
       </c>
       <c r="N5">
-        <v>1.190329755194924</v>
+        <v>2.630608874498989</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1357529677364653</v>
+        <v>0.1212855046115067</v>
       </c>
       <c r="D6">
-        <v>1.790276272792426</v>
+        <v>0.0820456204481701</v>
       </c>
       <c r="E6">
-        <v>0.4678127354341868</v>
+        <v>0.09418767960770325</v>
       </c>
       <c r="F6">
-        <v>15.34443337035111</v>
+        <v>3.044614336057549</v>
       </c>
       <c r="G6">
-        <v>0.0006355597749530431</v>
+        <v>3.539230940194244</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.724618362580117</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1023564702908928</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.914645841553778</v>
+        <v>3.433352189353073</v>
       </c>
       <c r="N6">
-        <v>1.188793867752651</v>
+        <v>2.616360862227026</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.147785184224432</v>
+        <v>0.1281249405172673</v>
       </c>
       <c r="D7">
-        <v>1.951535632842649</v>
+        <v>0.08699958649137329</v>
       </c>
       <c r="E7">
-        <v>0.5074390408457319</v>
+        <v>0.09702815216570571</v>
       </c>
       <c r="F7">
-        <v>16.60462834611405</v>
+        <v>3.215075970546849</v>
       </c>
       <c r="G7">
-        <v>0.0006142595795504234</v>
+        <v>3.741146605322001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.817382204999319</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108101988871752</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.66783604811519</v>
+        <v>3.61563747511056</v>
       </c>
       <c r="N7">
-        <v>1.198980905962117</v>
+        <v>2.715350804251329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2334044381018572</v>
+        <v>0.1593425483578699</v>
       </c>
       <c r="D8">
-        <v>3.121638320836212</v>
+        <v>0.1100973281090774</v>
       </c>
       <c r="E8">
-        <v>0.7850769359750274</v>
+        <v>0.1093158205096287</v>
       </c>
       <c r="F8">
-        <v>25.92016942492955</v>
+        <v>3.999376730941634</v>
       </c>
       <c r="G8">
-        <v>0.0004798354473658395</v>
+        <v>4.669906964261173</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.245554125090507</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.73701983771619</v>
+        <v>4.434837613400347</v>
       </c>
       <c r="N8">
-        <v>1.206738199729756</v>
+        <v>3.154740123974534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2334044381018572</v>
+        <v>0.2261328744653071</v>
       </c>
       <c r="D9">
-        <v>3.121638320836212</v>
+        <v>0.1620312673872917</v>
       </c>
       <c r="E9">
-        <v>0.7850769359750274</v>
+        <v>0.1320717394526483</v>
       </c>
       <c r="F9">
-        <v>25.92016942492955</v>
+        <v>5.707121855675865</v>
       </c>
       <c r="G9">
-        <v>0.0004798354473658395</v>
+        <v>6.691968443362839</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.18386722431319</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.73701983771619</v>
+        <v>6.124414350031373</v>
       </c>
       <c r="N9">
-        <v>1.206738199729756</v>
+        <v>4.028634365670001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2334044381018572</v>
+        <v>0.2809948616335305</v>
       </c>
       <c r="D10">
-        <v>3.121638320836212</v>
+        <v>0.2071304406651251</v>
       </c>
       <c r="E10">
-        <v>0.7850769359750274</v>
+        <v>0.1474398670902914</v>
       </c>
       <c r="F10">
-        <v>25.92016942492955</v>
+        <v>7.135884238417475</v>
       </c>
       <c r="G10">
-        <v>0.0004798354473658395</v>
+        <v>8.384541993986943</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.973690891030287</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.73701983771619</v>
+        <v>7.455407203395879</v>
       </c>
       <c r="N10">
-        <v>1.206738199729756</v>
+        <v>4.681758500969408</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2334044381018572</v>
+        <v>0.3079821709564641</v>
       </c>
       <c r="D11">
-        <v>3.121638320836212</v>
+        <v>0.2301083372889821</v>
       </c>
       <c r="E11">
-        <v>0.7850769359750274</v>
+        <v>0.1539813948883335</v>
       </c>
       <c r="F11">
-        <v>25.92016942492955</v>
+        <v>7.846476463601164</v>
       </c>
       <c r="G11">
-        <v>0.0004798354473658395</v>
+        <v>9.226834227437791</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.367846199988321</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.73701983771619</v>
+        <v>8.092988761526982</v>
       </c>
       <c r="N11">
-        <v>1.206738199729756</v>
+        <v>4.982298919764219</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2334044381018572</v>
+        <v>0.3185861626718633</v>
       </c>
       <c r="D12">
-        <v>3.121638320836212</v>
+        <v>0.239280117753168</v>
       </c>
       <c r="E12">
-        <v>0.7850769359750274</v>
+        <v>0.1563763983585389</v>
       </c>
       <c r="F12">
-        <v>25.92016942492955</v>
+        <v>8.127024103276597</v>
       </c>
       <c r="G12">
-        <v>0.0004798354473658395</v>
+        <v>9.559484842454879</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.523685384985413</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.73701983771619</v>
+        <v>8.340556503845136</v>
       </c>
       <c r="N12">
-        <v>1.206738199729756</v>
+        <v>5.096704088809076</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2334044381018572</v>
+        <v>0.3162834726559112</v>
       </c>
       <c r="D13">
-        <v>3.121638320836212</v>
+        <v>0.2372815549706502</v>
       </c>
       <c r="E13">
-        <v>0.7850769359750274</v>
+        <v>0.1558645759838306</v>
       </c>
       <c r="F13">
-        <v>25.92016942492955</v>
+        <v>8.066039073635267</v>
       </c>
       <c r="G13">
-        <v>0.0004798354473658395</v>
+        <v>9.487168348053785</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.489798849057308</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.73701983771619</v>
+        <v>8.286935799700444</v>
       </c>
       <c r="N13">
-        <v>1.206738199729756</v>
+        <v>5.072036431739434</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2334044381018572</v>
+        <v>0.3088462152309148</v>
       </c>
       <c r="D14">
-        <v>3.121638320836212</v>
+        <v>0.2308526527619819</v>
       </c>
       <c r="E14">
-        <v>0.7850769359750274</v>
+        <v>0.1541801969101648</v>
       </c>
       <c r="F14">
-        <v>25.92016942492955</v>
+        <v>7.869308386570424</v>
       </c>
       <c r="G14">
-        <v>0.0004798354473658395</v>
+        <v>9.253904119260028</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4.38052430655847</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.73701983771619</v>
+        <v>8.113222882032886</v>
       </c>
       <c r="N14">
-        <v>1.206738199729756</v>
+        <v>4.991698459436634</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2334044381018572</v>
+        <v>0.304344046767909</v>
       </c>
       <c r="D15">
-        <v>3.121638320836212</v>
+        <v>0.2269802275977071</v>
       </c>
       <c r="E15">
-        <v>0.7850769359750274</v>
+        <v>0.1531371690119165</v>
       </c>
       <c r="F15">
-        <v>25.92016942492955</v>
+        <v>7.750395565531534</v>
       </c>
       <c r="G15">
-        <v>0.0004798354473658395</v>
+        <v>9.112923657076976</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.314503484168313</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.73701983771619</v>
+        <v>8.007670849893458</v>
       </c>
       <c r="N15">
-        <v>1.206738199729756</v>
+        <v>4.942570352876828</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2334044381018572</v>
+        <v>0.2792792516554101</v>
       </c>
       <c r="D16">
-        <v>3.121638320836212</v>
+        <v>0.2056873728406003</v>
       </c>
       <c r="E16">
-        <v>0.7850769359750274</v>
+        <v>0.1470019260359692</v>
       </c>
       <c r="F16">
-        <v>25.92016942492955</v>
+        <v>7.090879411198898</v>
       </c>
       <c r="G16">
-        <v>0.0004798354473658395</v>
+        <v>8.331208325092746</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.948755654964657</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.73701983771619</v>
+        <v>7.414503773709129</v>
       </c>
       <c r="N16">
-        <v>1.206738199729756</v>
+        <v>4.662194877914942</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2334044381018572</v>
+        <v>0.2644795413864216</v>
       </c>
       <c r="D17">
-        <v>3.121638320836212</v>
+        <v>0.1933263779374812</v>
       </c>
       <c r="E17">
-        <v>0.7850769359750274</v>
+        <v>0.1431119536765522</v>
       </c>
       <c r="F17">
-        <v>25.92016942492955</v>
+        <v>6.703498372069731</v>
       </c>
       <c r="G17">
-        <v>0.0004798354473658395</v>
+        <v>7.872192288518136</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.734269885637616</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.73701983771619</v>
+        <v>7.0597646930851</v>
       </c>
       <c r="N17">
-        <v>1.206738199729756</v>
+        <v>4.491139414494967</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2334044381018572</v>
+        <v>0.2561512792984502</v>
       </c>
       <c r="D18">
-        <v>3.121638320836212</v>
+        <v>0.1864395640044023</v>
       </c>
       <c r="E18">
-        <v>0.7850769359750274</v>
+        <v>0.1408335019350915</v>
       </c>
       <c r="F18">
-        <v>25.92016942492955</v>
+        <v>6.486188357380172</v>
       </c>
       <c r="G18">
-        <v>0.0004798354473658395</v>
+        <v>7.614738593861148</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.614066410365467</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.73701983771619</v>
+        <v>6.858636202137234</v>
       </c>
       <c r="N18">
-        <v>1.206738199729756</v>
+        <v>4.393068455773744</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2334044381018572</v>
+        <v>0.2533607555669875</v>
       </c>
       <c r="D19">
-        <v>3.121638320836212</v>
+        <v>0.1841431677274272</v>
       </c>
       <c r="E19">
-        <v>0.7850769359750274</v>
+        <v>0.1400554693977902</v>
       </c>
       <c r="F19">
-        <v>25.92016942492955</v>
+        <v>6.41348641255081</v>
       </c>
       <c r="G19">
-        <v>0.0004798354473658395</v>
+        <v>7.528612685729286</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.573871184149823</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.73701983771619</v>
+        <v>6.790998734679278</v>
       </c>
       <c r="N19">
-        <v>1.206738199729756</v>
+        <v>4.359914712851321</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2334044381018572</v>
+        <v>0.266035364259622</v>
       </c>
       <c r="D20">
-        <v>3.121638320836212</v>
+        <v>0.1946184405319684</v>
       </c>
       <c r="E20">
-        <v>0.7850769359750274</v>
+        <v>0.1435304078257076</v>
       </c>
       <c r="F20">
-        <v>25.92016942492955</v>
+        <v>6.744149394235507</v>
       </c>
       <c r="G20">
-        <v>0.0004798354473658395</v>
+        <v>7.920355991606471</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.756765185210895</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.73701983771619</v>
+        <v>7.097216929069845</v>
       </c>
       <c r="N20">
-        <v>1.206738199729756</v>
+        <v>4.509315214339949</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2334044381018572</v>
+        <v>0.3110193828566565</v>
       </c>
       <c r="D21">
-        <v>3.121638320836212</v>
+        <v>0.232727062574881</v>
       </c>
       <c r="E21">
-        <v>0.7850769359750274</v>
+        <v>0.1546773325850133</v>
       </c>
       <c r="F21">
-        <v>25.92016942492955</v>
+        <v>7.926755179734755</v>
       </c>
       <c r="G21">
-        <v>0.0004798354473658395</v>
+        <v>9.322015775425825</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.412426993764768</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.73701983771619</v>
+        <v>8.16406549444855</v>
       </c>
       <c r="N21">
-        <v>1.206738199729756</v>
+        <v>5.015278523807751</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2334044381018572</v>
+        <v>0.3427300174113839</v>
       </c>
       <c r="D22">
-        <v>3.121638320836212</v>
+        <v>0.2604658554442949</v>
       </c>
       <c r="E22">
-        <v>0.7850769359750274</v>
+        <v>0.1614716903483284</v>
       </c>
       <c r="F22">
-        <v>25.92016942492955</v>
+        <v>8.768541477436543</v>
       </c>
       <c r="G22">
-        <v>0.0004798354473658395</v>
+        <v>10.32039037748206</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.880489117729269</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.73701983771619</v>
+        <v>8.898184577378345</v>
       </c>
       <c r="N22">
-        <v>1.206738199729756</v>
+        <v>5.349501398509005</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2334044381018572</v>
+        <v>0.3255540327409818</v>
       </c>
       <c r="D23">
-        <v>3.121638320836212</v>
+        <v>0.2453510007600386</v>
       </c>
       <c r="E23">
-        <v>0.7850769359750274</v>
+        <v>0.157897487244032</v>
       </c>
       <c r="F23">
-        <v>25.92016942492955</v>
+        <v>8.311775203105526</v>
       </c>
       <c r="G23">
-        <v>0.0004798354473658395</v>
+        <v>9.778582757978199</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.626377886978219</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.73701983771619</v>
+        <v>8.502343598637083</v>
       </c>
       <c r="N23">
-        <v>1.206738199729756</v>
+        <v>5.170755074678823</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2334044381018572</v>
+        <v>0.2653314216829585</v>
       </c>
       <c r="D24">
-        <v>3.121638320836212</v>
+        <v>0.1940336229116184</v>
       </c>
       <c r="E24">
-        <v>0.7850769359750274</v>
+        <v>0.1433413544455249</v>
       </c>
       <c r="F24">
-        <v>25.92016942492955</v>
+        <v>6.72575443833145</v>
       </c>
       <c r="G24">
-        <v>0.0004798354473658395</v>
+        <v>7.898561351128535</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.746585492012741</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.73701983771619</v>
+        <v>7.080276109074333</v>
       </c>
       <c r="N24">
-        <v>1.206738199729756</v>
+        <v>4.50109709830059</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2334044381018572</v>
+        <v>0.2072560142071467</v>
       </c>
       <c r="D25">
-        <v>3.121638320836212</v>
+        <v>0.1470172070112739</v>
       </c>
       <c r="E25">
-        <v>0.7850769359750274</v>
+        <v>0.1261082345334437</v>
       </c>
       <c r="F25">
-        <v>25.92016942492955</v>
+        <v>5.220721523962197</v>
       </c>
       <c r="G25">
-        <v>0.0004798354473658395</v>
+        <v>6.115985030920626</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.915907018111341</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1449175249560071</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.73701983771619</v>
+        <v>5.654997790196774</v>
       </c>
       <c r="N25">
-        <v>1.206738199729756</v>
+        <v>3.79057434540556</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1681081456022469</v>
+        <v>0.05033064946979948</v>
       </c>
       <c r="D2">
-        <v>0.116721536175362</v>
+        <v>0.03515554760299722</v>
       </c>
       <c r="E2">
-        <v>0.1125710402688007</v>
+        <v>0.06527041018029678</v>
       </c>
       <c r="F2">
-        <v>4.221309456451735</v>
+        <v>1.567644562272051</v>
       </c>
       <c r="G2">
-        <v>4.932675541809317</v>
+        <v>1.62744201868253</v>
       </c>
       <c r="H2">
-        <v>2.367069958455943</v>
+        <v>1.116008442887392</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.661289689766463</v>
+        <v>1.467739151372143</v>
       </c>
       <c r="N2">
-        <v>3.274507645294165</v>
+        <v>1.528808783980793</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1430534434737041</v>
+        <v>0.04456577438858744</v>
       </c>
       <c r="D3">
-        <v>0.0979473363209209</v>
+        <v>0.03163531534735142</v>
       </c>
       <c r="E3">
-        <v>0.1030413118344562</v>
+        <v>0.06185255765556619</v>
       </c>
       <c r="F3">
-        <v>3.588902994312463</v>
+        <v>1.43847920142619</v>
       </c>
       <c r="G3">
-        <v>4.183869128067329</v>
+        <v>1.470621640639223</v>
       </c>
       <c r="H3">
-        <v>2.021203468864456</v>
+        <v>1.050735519753488</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.009935246620572</v>
+        <v>1.29305177298744</v>
       </c>
       <c r="N3">
-        <v>2.927995784426685</v>
+        <v>1.414726733157437</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1282054663266905</v>
+        <v>0.04105264017910315</v>
       </c>
       <c r="D4">
-        <v>0.08705814728379124</v>
+        <v>0.02951204739292024</v>
       </c>
       <c r="E4">
-        <v>0.09706127259525132</v>
+        <v>0.05976916569155932</v>
       </c>
       <c r="F4">
-        <v>3.217086044849538</v>
+        <v>1.360514606746648</v>
       </c>
       <c r="G4">
-        <v>3.743527417286657</v>
+        <v>1.375670021507204</v>
       </c>
       <c r="H4">
-        <v>1.818476763050256</v>
+        <v>1.011663489069832</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.617777394013899</v>
+        <v>1.185896222750287</v>
       </c>
       <c r="N4">
-        <v>2.716510388689784</v>
+        <v>1.344947110540602</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1222657221227621</v>
+        <v>0.03962734940294865</v>
       </c>
       <c r="D5">
-        <v>0.08275318913738516</v>
+        <v>0.02865597860972713</v>
       </c>
       <c r="E5">
-        <v>0.09459810592906237</v>
+        <v>0.05892427954307777</v>
       </c>
       <c r="F5">
-        <v>3.069012282070872</v>
+        <v>1.329071281758758</v>
       </c>
       <c r="G5">
-        <v>3.568132678463456</v>
+        <v>1.337300500523241</v>
       </c>
       <c r="H5">
-        <v>1.737888272484554</v>
+        <v>0.9959886964501834</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.459542149461825</v>
+        <v>1.142252676382824</v>
       </c>
       <c r="N5">
-        <v>2.630608874498989</v>
+        <v>1.316581670004467</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1212855046115067</v>
+        <v>0.03939105435665624</v>
       </c>
       <c r="D6">
-        <v>0.0820456204481701</v>
+        <v>0.0285143714120224</v>
       </c>
       <c r="E6">
-        <v>0.09418767960770325</v>
+        <v>0.05878424387303127</v>
       </c>
       <c r="F6">
-        <v>3.044614336057549</v>
+        <v>1.323869657342925</v>
       </c>
       <c r="G6">
-        <v>3.539230940194244</v>
+        <v>1.330948491926819</v>
       </c>
       <c r="H6">
-        <v>1.724618362580117</v>
+        <v>0.9934006899386247</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.433352189353073</v>
+        <v>1.13500702298974</v>
       </c>
       <c r="N6">
-        <v>2.616360862227026</v>
+        <v>1.311875950818063</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1281249405172673</v>
+        <v>0.04103339297019204</v>
       </c>
       <c r="D7">
-        <v>0.08699958649137329</v>
+        <v>0.02950046552759744</v>
       </c>
       <c r="E7">
-        <v>0.09702815216570571</v>
+        <v>0.05975775421868335</v>
       </c>
       <c r="F7">
-        <v>3.215075970546849</v>
+        <v>1.360089236509907</v>
       </c>
       <c r="G7">
-        <v>3.741146605322001</v>
+        <v>1.375151260564195</v>
       </c>
       <c r="H7">
-        <v>1.817382204999319</v>
+        <v>1.01145109896342</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.61563747511056</v>
+        <v>1.185307540181185</v>
       </c>
       <c r="N7">
-        <v>2.715350804251329</v>
+        <v>1.344564275358579</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1593425483578699</v>
+        <v>0.04833721424105875</v>
       </c>
       <c r="D8">
-        <v>0.1100973281090774</v>
+        <v>0.03393359516844185</v>
       </c>
       <c r="E8">
-        <v>0.1093158205096287</v>
+        <v>0.06408895984083074</v>
       </c>
       <c r="F8">
-        <v>3.999376730941634</v>
+        <v>1.522823436754095</v>
       </c>
       <c r="G8">
-        <v>4.669906964261173</v>
+        <v>1.573085528772083</v>
       </c>
       <c r="H8">
-        <v>2.245554125090507</v>
+        <v>1.093290197834278</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.434837613400347</v>
+        <v>1.407483783954348</v>
       </c>
       <c r="N8">
-        <v>3.154740123974534</v>
+        <v>1.489419649574415</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2261328744653071</v>
+        <v>0.06288618654748745</v>
       </c>
       <c r="D9">
-        <v>0.1620312673872917</v>
+        <v>0.04294929708620998</v>
       </c>
       <c r="E9">
-        <v>0.1320717394526483</v>
+        <v>0.07269019997768567</v>
       </c>
       <c r="F9">
-        <v>5.707121855675865</v>
+        <v>1.853075720278781</v>
       </c>
       <c r="G9">
-        <v>6.691968443362839</v>
+        <v>1.972412569801008</v>
       </c>
       <c r="H9">
-        <v>3.18386722431319</v>
+        <v>1.262019712020276</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.124414350031373</v>
+        <v>1.844140479807237</v>
       </c>
       <c r="N9">
-        <v>4.028634365670001</v>
+        <v>1.7754812217986</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2809948616335305</v>
+        <v>0.07373636131187311</v>
       </c>
       <c r="D10">
-        <v>0.2071304406651251</v>
+        <v>0.0497976118975032</v>
       </c>
       <c r="E10">
-        <v>0.1474398670902914</v>
+        <v>0.07905848501506796</v>
       </c>
       <c r="F10">
-        <v>7.135884238417475</v>
+        <v>2.103183951280442</v>
       </c>
       <c r="G10">
-        <v>8.384541993986943</v>
+        <v>2.273444457487756</v>
       </c>
       <c r="H10">
-        <v>3.973690891030287</v>
+        <v>1.391393058591348</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.455407203395879</v>
+        <v>2.165791948797619</v>
       </c>
       <c r="N10">
-        <v>4.681758500969408</v>
+        <v>1.986735673655517</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3079821709564641</v>
+        <v>0.07871255083101403</v>
       </c>
       <c r="D11">
-        <v>0.2301083372889821</v>
+        <v>0.05296806861487369</v>
       </c>
       <c r="E11">
-        <v>0.1539813948883335</v>
+        <v>0.08196263216468935</v>
       </c>
       <c r="F11">
-        <v>7.846476463601164</v>
+        <v>2.218740759894956</v>
       </c>
       <c r="G11">
-        <v>9.226834227437791</v>
+        <v>2.412238016540527</v>
       </c>
       <c r="H11">
-        <v>4.367846199988321</v>
+        <v>1.451508328980537</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.092988761526982</v>
+        <v>2.312360320880202</v>
       </c>
       <c r="N11">
-        <v>4.982298919764219</v>
+        <v>2.083050618322829</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3185861626718633</v>
+        <v>0.08060312708707329</v>
       </c>
       <c r="D12">
-        <v>0.239280117753168</v>
+        <v>0.05417707685026585</v>
       </c>
       <c r="E12">
-        <v>0.1563763983585389</v>
+        <v>0.08306307578183691</v>
       </c>
       <c r="F12">
-        <v>8.127024103276597</v>
+        <v>2.262767672201988</v>
       </c>
       <c r="G12">
-        <v>9.559484842454879</v>
+        <v>2.465076962121202</v>
       </c>
       <c r="H12">
-        <v>4.523685384985413</v>
+        <v>1.474460930874216</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.340556503845136</v>
+        <v>2.367901839402748</v>
       </c>
       <c r="N12">
-        <v>5.096704088809076</v>
+        <v>2.119550861324512</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3162834726559112</v>
+        <v>0.08019567549469286</v>
       </c>
       <c r="D13">
-        <v>0.2372815549706502</v>
+        <v>0.05391631252516049</v>
       </c>
       <c r="E13">
-        <v>0.1558645759838306</v>
+        <v>0.08282604938253968</v>
       </c>
       <c r="F13">
-        <v>8.066039073635267</v>
+        <v>2.253273574270366</v>
       </c>
       <c r="G13">
-        <v>9.487168348053785</v>
+        <v>2.453684425982658</v>
       </c>
       <c r="H13">
-        <v>4.489798849057308</v>
+        <v>1.46950919653176</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.286935799700444</v>
+        <v>2.355938173348136</v>
       </c>
       <c r="N13">
-        <v>5.072036431739434</v>
+        <v>2.111688687718129</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3088462152309148</v>
+        <v>0.0788679631061342</v>
       </c>
       <c r="D14">
-        <v>0.2308526527619819</v>
+        <v>0.05306736270148349</v>
       </c>
       <c r="E14">
-        <v>0.1541801969101648</v>
+        <v>0.08205315405209035</v>
       </c>
       <c r="F14">
-        <v>7.869308386570424</v>
+        <v>2.222357438962518</v>
       </c>
       <c r="G14">
-        <v>9.253904119260028</v>
+        <v>2.416579396090413</v>
       </c>
       <c r="H14">
-        <v>4.38052430655847</v>
+        <v>1.453392841597179</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.113222882032886</v>
+        <v>2.316928946615036</v>
       </c>
       <c r="N14">
-        <v>4.991698459436634</v>
+        <v>2.086052973438768</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.304344046767909</v>
+        <v>0.07805552036218444</v>
       </c>
       <c r="D15">
-        <v>0.2269802275977071</v>
+        <v>0.05254846861163287</v>
       </c>
       <c r="E15">
-        <v>0.1531371690119165</v>
+        <v>0.08157981556399818</v>
       </c>
       <c r="F15">
-        <v>7.750395565531534</v>
+        <v>2.203455680688762</v>
       </c>
       <c r="G15">
-        <v>9.112923657076976</v>
+        <v>2.393888501428535</v>
       </c>
       <c r="H15">
-        <v>4.314503484168313</v>
+        <v>1.443545826211221</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.007670849893458</v>
+        <v>2.293039893216729</v>
       </c>
       <c r="N15">
-        <v>4.942570352876828</v>
+        <v>2.070353900862926</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2792792516554101</v>
+        <v>0.0734120017692419</v>
       </c>
       <c r="D16">
-        <v>0.2056873728406003</v>
+        <v>0.04959156665674413</v>
       </c>
       <c r="E16">
-        <v>0.1470019260359692</v>
+        <v>0.07886880882583114</v>
       </c>
       <c r="F16">
-        <v>7.090879411198898</v>
+        <v>2.095668897786908</v>
       </c>
       <c r="G16">
-        <v>8.331208325092746</v>
+        <v>2.264412477397684</v>
       </c>
       <c r="H16">
-        <v>3.948755654964657</v>
+        <v>1.387490360021104</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.414503773709129</v>
+        <v>2.156218650674901</v>
       </c>
       <c r="N16">
-        <v>4.662194877914942</v>
+        <v>1.980445323152196</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2644795413864216</v>
+        <v>0.07057397513804631</v>
       </c>
       <c r="D17">
-        <v>0.1933263779374812</v>
+        <v>0.04779207247688078</v>
       </c>
       <c r="E17">
-        <v>0.1431119536765522</v>
+        <v>0.07720730190693104</v>
       </c>
       <c r="F17">
-        <v>6.703498372069731</v>
+        <v>2.030009814933891</v>
       </c>
       <c r="G17">
-        <v>7.872192288518136</v>
+        <v>2.185467793540454</v>
       </c>
       <c r="H17">
-        <v>3.734269885637616</v>
+        <v>1.35343025182425</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.0597646930851</v>
+        <v>2.072349193459758</v>
       </c>
       <c r="N17">
-        <v>4.491139414494967</v>
+        <v>1.925342075430422</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2561512792984502</v>
+        <v>0.0689453949251515</v>
       </c>
       <c r="D18">
-        <v>0.1864395640044023</v>
+        <v>0.04676220902967998</v>
       </c>
       <c r="E18">
-        <v>0.1408335019350915</v>
+        <v>0.0762523427935804</v>
       </c>
       <c r="F18">
-        <v>6.486188357380172</v>
+        <v>1.992411383770332</v>
       </c>
       <c r="G18">
-        <v>7.614738593861148</v>
+        <v>2.140234395058826</v>
       </c>
       <c r="H18">
-        <v>3.614066410365467</v>
+        <v>1.333958218775535</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.858636202137234</v>
+        <v>2.024132766020216</v>
       </c>
       <c r="N18">
-        <v>4.393068455773744</v>
+        <v>1.893668480661944</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2533607555669875</v>
+        <v>0.06839462264724716</v>
       </c>
       <c r="D19">
-        <v>0.1841431677274272</v>
+        <v>0.04641438586747881</v>
       </c>
       <c r="E19">
-        <v>0.1400554693977902</v>
+        <v>0.07592913944989022</v>
       </c>
       <c r="F19">
-        <v>6.41348641255081</v>
+        <v>1.979709514567702</v>
       </c>
       <c r="G19">
-        <v>7.528612685729286</v>
+        <v>2.124948507661827</v>
       </c>
       <c r="H19">
-        <v>3.573871184149823</v>
+        <v>1.327385464356098</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.790998734679278</v>
+        <v>2.007811365063844</v>
       </c>
       <c r="N19">
-        <v>4.359914712851321</v>
+        <v>1.882947929325383</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.266035364259622</v>
+        <v>0.07087569412989581</v>
       </c>
       <c r="D20">
-        <v>0.1946184405319684</v>
+        <v>0.04798309429806125</v>
       </c>
       <c r="E20">
-        <v>0.1435304078257076</v>
+        <v>0.07738410250898653</v>
       </c>
       <c r="F20">
-        <v>6.744149394235507</v>
+        <v>2.036981973777586</v>
       </c>
       <c r="G20">
-        <v>7.920355991606471</v>
+        <v>2.193853530353806</v>
       </c>
       <c r="H20">
-        <v>3.756765185210895</v>
+        <v>1.357043702508236</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.097216929069845</v>
+        <v>2.08127482712186</v>
       </c>
       <c r="N20">
-        <v>4.509315214339949</v>
+        <v>1.931205827090196</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3110193828566565</v>
+        <v>0.07925777293445435</v>
       </c>
       <c r="D21">
-        <v>0.232727062574881</v>
+        <v>0.0533164871585825</v>
       </c>
       <c r="E21">
-        <v>0.1546773325850133</v>
+        <v>0.08228015559786428</v>
       </c>
       <c r="F21">
-        <v>7.926755179734755</v>
+        <v>2.231430885989596</v>
       </c>
       <c r="G21">
-        <v>9.322015775425825</v>
+        <v>2.427470304236124</v>
       </c>
       <c r="H21">
-        <v>4.412426993764768</v>
+        <v>1.45812144246463</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.16406549444855</v>
+        <v>2.328385806561442</v>
       </c>
       <c r="N21">
-        <v>5.015278523807751</v>
+        <v>2.09358207100297</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3427300174113839</v>
+        <v>0.08477228150611893</v>
       </c>
       <c r="D22">
-        <v>0.2604658554442949</v>
+        <v>0.05685151546894929</v>
       </c>
       <c r="E22">
-        <v>0.1614716903483284</v>
+        <v>0.08548397173694156</v>
       </c>
       <c r="F22">
-        <v>8.768541477436543</v>
+        <v>2.360082668991964</v>
       </c>
       <c r="G22">
-        <v>10.32039037748206</v>
+        <v>2.58179625400328</v>
       </c>
       <c r="H22">
-        <v>4.880489117729269</v>
+        <v>1.525282098093953</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.898184577378345</v>
+        <v>2.490117769034867</v>
       </c>
       <c r="N22">
-        <v>5.349501398509005</v>
+        <v>2.199865432404977</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3255540327409818</v>
+        <v>0.08182562726655362</v>
       </c>
       <c r="D23">
-        <v>0.2453510007600386</v>
+        <v>0.0549601212107973</v>
       </c>
       <c r="E23">
-        <v>0.157897487244032</v>
+        <v>0.08377378079791242</v>
       </c>
       <c r="F23">
-        <v>8.311775203105526</v>
+        <v>2.291271291732301</v>
       </c>
       <c r="G23">
-        <v>9.778582757978199</v>
+        <v>2.49927431499691</v>
       </c>
       <c r="H23">
-        <v>4.626377886978219</v>
+        <v>1.489334243490703</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.502343598637083</v>
+        <v>2.403776013123093</v>
       </c>
       <c r="N23">
-        <v>5.170755074678823</v>
+        <v>2.143126214273479</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2653314216829585</v>
+        <v>0.07073927753728526</v>
       </c>
       <c r="D24">
-        <v>0.1940336229116184</v>
+        <v>0.04789671876309853</v>
       </c>
       <c r="E24">
-        <v>0.1433413544455249</v>
+        <v>0.07730417011190127</v>
       </c>
       <c r="F24">
-        <v>6.72575443833145</v>
+        <v>2.033829394911493</v>
       </c>
       <c r="G24">
-        <v>7.898561351128535</v>
+        <v>2.190061863416759</v>
       </c>
       <c r="H24">
-        <v>3.746585492012741</v>
+        <v>1.355409720650016</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.080276109074333</v>
+        <v>2.077239544553095</v>
       </c>
       <c r="N24">
-        <v>4.50109709830059</v>
+        <v>1.928554806062948</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2072560142071467</v>
+        <v>0.05892372672171575</v>
       </c>
       <c r="D25">
-        <v>0.1470172070112739</v>
+        <v>0.04047294831426029</v>
       </c>
       <c r="E25">
-        <v>0.1261082345334437</v>
+        <v>0.07035352172209031</v>
       </c>
       <c r="F25">
-        <v>5.220721523962197</v>
+        <v>1.762472090930004</v>
       </c>
       <c r="G25">
-        <v>6.115985030920626</v>
+        <v>1.863102442482898</v>
       </c>
       <c r="H25">
-        <v>2.915907018111341</v>
+        <v>1.215452414927768</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.654997790196774</v>
+        <v>1.725884347862831</v>
       </c>
       <c r="N25">
-        <v>3.79057434540556</v>
+        <v>1.697894012675903</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05033064946979948</v>
+        <v>0.1681081456024316</v>
       </c>
       <c r="D2">
-        <v>0.03515554760299722</v>
+        <v>0.1167215361753478</v>
       </c>
       <c r="E2">
-        <v>0.06527041018029678</v>
+        <v>0.1125710402687474</v>
       </c>
       <c r="F2">
-        <v>1.567644562272051</v>
+        <v>4.221309456451735</v>
       </c>
       <c r="G2">
-        <v>1.62744201868253</v>
+        <v>4.932675541809374</v>
       </c>
       <c r="H2">
-        <v>1.116008442887392</v>
+        <v>2.367069958456057</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.467739151372143</v>
+        <v>4.661289689766477</v>
       </c>
       <c r="N2">
-        <v>1.528808783980793</v>
+        <v>3.274507645294051</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04456577438858744</v>
+        <v>0.1430534434732209</v>
       </c>
       <c r="D3">
-        <v>0.03163531534735142</v>
+        <v>0.09794733632094221</v>
       </c>
       <c r="E3">
-        <v>0.06185255765556619</v>
+        <v>0.1030413118344242</v>
       </c>
       <c r="F3">
-        <v>1.43847920142619</v>
+        <v>3.588902994312434</v>
       </c>
       <c r="G3">
-        <v>1.470621640639223</v>
+        <v>4.183869128067244</v>
       </c>
       <c r="H3">
-        <v>1.050735519753488</v>
+        <v>2.021203468864456</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.29305177298744</v>
+        <v>4.009935246620543</v>
       </c>
       <c r="N3">
-        <v>1.414726733157437</v>
+        <v>2.927995784426798</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04105264017910315</v>
+        <v>0.1282054663266905</v>
       </c>
       <c r="D4">
-        <v>0.02951204739292024</v>
+        <v>0.08705814728379124</v>
       </c>
       <c r="E4">
-        <v>0.05976916569155932</v>
+        <v>0.09706127259523711</v>
       </c>
       <c r="F4">
-        <v>1.360514606746648</v>
+        <v>3.217086044849509</v>
       </c>
       <c r="G4">
-        <v>1.375670021507204</v>
+        <v>3.743527417286714</v>
       </c>
       <c r="H4">
-        <v>1.011663489069832</v>
+        <v>1.818476763050256</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.185896222750287</v>
+        <v>3.617777394013913</v>
       </c>
       <c r="N4">
-        <v>1.344947110540602</v>
+        <v>2.71651038868967</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03962734940294865</v>
+        <v>0.1222657221222931</v>
       </c>
       <c r="D5">
-        <v>0.02865597860972713</v>
+        <v>0.08275318913749885</v>
       </c>
       <c r="E5">
-        <v>0.05892427954307777</v>
+        <v>0.09459810592905171</v>
       </c>
       <c r="F5">
-        <v>1.329071281758758</v>
+        <v>3.069012282070929</v>
       </c>
       <c r="G5">
-        <v>1.337300500523241</v>
+        <v>3.568132678463371</v>
       </c>
       <c r="H5">
-        <v>0.9959886964501834</v>
+        <v>1.737888272484554</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.142252676382824</v>
+        <v>3.459542149461811</v>
       </c>
       <c r="N5">
-        <v>1.316581670004467</v>
+        <v>2.630608874499103</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03939105435665624</v>
+        <v>0.1212855046112793</v>
       </c>
       <c r="D6">
-        <v>0.0285143714120224</v>
+        <v>0.08204562044829089</v>
       </c>
       <c r="E6">
-        <v>0.05878424387303127</v>
+        <v>0.09418767960773877</v>
       </c>
       <c r="F6">
-        <v>1.323869657342925</v>
+        <v>3.044614336057549</v>
       </c>
       <c r="G6">
-        <v>1.330948491926819</v>
+        <v>3.539230940194244</v>
       </c>
       <c r="H6">
-        <v>0.9934006899386247</v>
+        <v>1.724618362580003</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.13500702298974</v>
+        <v>3.433352189353045</v>
       </c>
       <c r="N6">
-        <v>1.311875950818063</v>
+        <v>2.616360862227026</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04103339297019204</v>
+        <v>0.1281249405170541</v>
       </c>
       <c r="D7">
-        <v>0.02950046552759744</v>
+        <v>0.08699958649137329</v>
       </c>
       <c r="E7">
-        <v>0.05975775421868335</v>
+        <v>0.09702815216569505</v>
       </c>
       <c r="F7">
-        <v>1.360089236509907</v>
+        <v>3.21507597054682</v>
       </c>
       <c r="G7">
-        <v>1.375151260564195</v>
+        <v>3.741146605322086</v>
       </c>
       <c r="H7">
-        <v>1.01145109896342</v>
+        <v>1.817382204999291</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.185307540181185</v>
+        <v>3.61563747511056</v>
       </c>
       <c r="N7">
-        <v>1.344564275358579</v>
+        <v>2.715350804251329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04833721424105875</v>
+        <v>0.1593425483573583</v>
       </c>
       <c r="D8">
-        <v>0.03393359516844185</v>
+        <v>0.1100973281093474</v>
       </c>
       <c r="E8">
-        <v>0.06408895984083074</v>
+        <v>0.1093158205096465</v>
       </c>
       <c r="F8">
-        <v>1.522823436754095</v>
+        <v>3.999376730941663</v>
       </c>
       <c r="G8">
-        <v>1.573085528772083</v>
+        <v>4.669906964261287</v>
       </c>
       <c r="H8">
-        <v>1.093290197834278</v>
+        <v>2.245554125090507</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.407483783954348</v>
+        <v>4.434837613400319</v>
       </c>
       <c r="N8">
-        <v>1.489419649574415</v>
+        <v>3.154740123974562</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06288618654748745</v>
+        <v>0.2261328744648949</v>
       </c>
       <c r="D9">
-        <v>0.04294929708620998</v>
+        <v>0.1620312673867659</v>
       </c>
       <c r="E9">
-        <v>0.07269019997768567</v>
+        <v>0.1320717394526518</v>
       </c>
       <c r="F9">
-        <v>1.853075720278781</v>
+        <v>5.707121855675865</v>
       </c>
       <c r="G9">
-        <v>1.972412569801008</v>
+        <v>6.691968443362839</v>
       </c>
       <c r="H9">
-        <v>1.262019712020276</v>
+        <v>3.18386722431319</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.844140479807237</v>
+        <v>6.124414350031373</v>
       </c>
       <c r="N9">
-        <v>1.7754812217986</v>
+        <v>4.028634365669888</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07373636131187311</v>
+        <v>0.2809948616333315</v>
       </c>
       <c r="D10">
-        <v>0.0497976118975032</v>
+        <v>0.2071304406654946</v>
       </c>
       <c r="E10">
-        <v>0.07905848501506796</v>
+        <v>0.1474398670902879</v>
       </c>
       <c r="F10">
-        <v>2.103183951280442</v>
+        <v>7.135884238417503</v>
       </c>
       <c r="G10">
-        <v>2.273444457487756</v>
+        <v>8.384541993986943</v>
       </c>
       <c r="H10">
-        <v>1.391393058591348</v>
+        <v>3.973690891030344</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.165791948797619</v>
+        <v>7.455407203395964</v>
       </c>
       <c r="N10">
-        <v>1.986735673655517</v>
+        <v>4.681758500969522</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07871255083101403</v>
+        <v>0.3079821709564641</v>
       </c>
       <c r="D11">
-        <v>0.05296806861487369</v>
+        <v>0.2301083372887831</v>
       </c>
       <c r="E11">
-        <v>0.08196263216468935</v>
+        <v>0.1539813948883264</v>
       </c>
       <c r="F11">
-        <v>2.218740759894956</v>
+        <v>7.846476463601192</v>
       </c>
       <c r="G11">
-        <v>2.412238016540527</v>
+        <v>9.226834227437791</v>
       </c>
       <c r="H11">
-        <v>1.451508328980537</v>
+        <v>4.367846199988435</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.312360320880202</v>
+        <v>8.09298876152701</v>
       </c>
       <c r="N11">
-        <v>2.083050618322829</v>
+        <v>4.982298919764219</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08060312708707329</v>
+        <v>0.3185861626720765</v>
       </c>
       <c r="D12">
-        <v>0.05417707685026585</v>
+        <v>0.2392801177529549</v>
       </c>
       <c r="E12">
-        <v>0.08306307578183691</v>
+        <v>0.1563763983585282</v>
       </c>
       <c r="F12">
-        <v>2.262767672201988</v>
+        <v>8.127024103276625</v>
       </c>
       <c r="G12">
-        <v>2.465076962121202</v>
+        <v>9.559484842455049</v>
       </c>
       <c r="H12">
-        <v>1.474460930874216</v>
+        <v>4.52368538498547</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.367901839402748</v>
+        <v>8.340556503845107</v>
       </c>
       <c r="N12">
-        <v>2.119550861324512</v>
+        <v>5.096704088809133</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08019567549469286</v>
+        <v>0.3162834726556838</v>
       </c>
       <c r="D13">
-        <v>0.05391631252516049</v>
+        <v>0.2372815549702807</v>
       </c>
       <c r="E13">
-        <v>0.08282604938253968</v>
+        <v>0.1558645759837951</v>
       </c>
       <c r="F13">
-        <v>2.253273574270366</v>
+        <v>8.06603907363521</v>
       </c>
       <c r="G13">
-        <v>2.453684425982658</v>
+        <v>9.487168348053729</v>
       </c>
       <c r="H13">
-        <v>1.46950919653176</v>
+        <v>4.489798849057365</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.355938173348136</v>
+        <v>8.286935799700416</v>
       </c>
       <c r="N13">
-        <v>2.111688687718129</v>
+        <v>5.072036431739548</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0788679631061342</v>
+        <v>0.3088462152307585</v>
       </c>
       <c r="D14">
-        <v>0.05306736270148349</v>
+        <v>0.2308526527619819</v>
       </c>
       <c r="E14">
-        <v>0.08205315405209035</v>
+        <v>0.1541801969101684</v>
       </c>
       <c r="F14">
-        <v>2.222357438962518</v>
+        <v>7.869308386570339</v>
       </c>
       <c r="G14">
-        <v>2.416579396090413</v>
+        <v>9.253904119259971</v>
       </c>
       <c r="H14">
-        <v>1.453392841597179</v>
+        <v>4.380524306558357</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.316928946615036</v>
+        <v>8.113222882032858</v>
       </c>
       <c r="N14">
-        <v>2.086052973438768</v>
+        <v>4.991698459436634</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07805552036218444</v>
+        <v>0.3043440467676817</v>
       </c>
       <c r="D15">
-        <v>0.05254846861163287</v>
+        <v>0.2269802275977355</v>
       </c>
       <c r="E15">
-        <v>0.08157981556399818</v>
+        <v>0.1531371690118952</v>
       </c>
       <c r="F15">
-        <v>2.203455680688762</v>
+        <v>7.750395565531505</v>
       </c>
       <c r="G15">
-        <v>2.393888501428535</v>
+        <v>9.112923657076806</v>
       </c>
       <c r="H15">
-        <v>1.443545826211221</v>
+        <v>4.31450348416837</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.293039893216729</v>
+        <v>8.007670849893458</v>
       </c>
       <c r="N15">
-        <v>2.070353900862926</v>
+        <v>4.942570352876714</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0734120017692419</v>
+        <v>0.2792792516554101</v>
       </c>
       <c r="D16">
-        <v>0.04959156665674413</v>
+        <v>0.2056873728405293</v>
       </c>
       <c r="E16">
-        <v>0.07886880882583114</v>
+        <v>0.1470019260359656</v>
       </c>
       <c r="F16">
-        <v>2.095668897786908</v>
+        <v>7.090879411198955</v>
       </c>
       <c r="G16">
-        <v>2.264412477397684</v>
+        <v>8.331208325092803</v>
       </c>
       <c r="H16">
-        <v>1.387490360021104</v>
+        <v>3.948755654964657</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.156218650674901</v>
+        <v>7.414503773709157</v>
       </c>
       <c r="N16">
-        <v>1.980445323152196</v>
+        <v>4.662194877914828</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07057397513804631</v>
+        <v>0.2644795413866206</v>
       </c>
       <c r="D17">
-        <v>0.04779207247688078</v>
+        <v>0.1933263779373107</v>
       </c>
       <c r="E17">
-        <v>0.07720730190693104</v>
+        <v>0.143111953676538</v>
       </c>
       <c r="F17">
-        <v>2.030009814933891</v>
+        <v>6.70349837206976</v>
       </c>
       <c r="G17">
-        <v>2.185467793540454</v>
+        <v>7.872192288518079</v>
       </c>
       <c r="H17">
-        <v>1.35343025182425</v>
+        <v>3.734269885637559</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.072349193459758</v>
+        <v>7.059764693085071</v>
       </c>
       <c r="N17">
-        <v>1.925342075430422</v>
+        <v>4.49113941449508</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0689453949251515</v>
+        <v>0.2561512792984217</v>
       </c>
       <c r="D18">
-        <v>0.04676220902967998</v>
+        <v>0.1864395640045871</v>
       </c>
       <c r="E18">
-        <v>0.0762523427935804</v>
+        <v>0.1408335019350879</v>
       </c>
       <c r="F18">
-        <v>1.992411383770332</v>
+        <v>6.486188357380229</v>
       </c>
       <c r="G18">
-        <v>2.140234395058826</v>
+        <v>7.614738593861148</v>
       </c>
       <c r="H18">
-        <v>1.333958218775535</v>
+        <v>3.614066410365467</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.024132766020216</v>
+        <v>6.858636202137291</v>
       </c>
       <c r="N18">
-        <v>1.893668480661944</v>
+        <v>4.393068455773715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06839462264724716</v>
+        <v>0.2533607555669732</v>
       </c>
       <c r="D19">
-        <v>0.04641438586747881</v>
+        <v>0.1841431677272425</v>
       </c>
       <c r="E19">
-        <v>0.07592913944989022</v>
+        <v>0.1400554693977831</v>
       </c>
       <c r="F19">
-        <v>1.979709514567702</v>
+        <v>6.413486412550895</v>
       </c>
       <c r="G19">
-        <v>2.124948507661827</v>
+        <v>7.528612685729286</v>
       </c>
       <c r="H19">
-        <v>1.327385464356098</v>
+        <v>3.573871184149766</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.007811365063844</v>
+        <v>6.790998734679363</v>
       </c>
       <c r="N19">
-        <v>1.882947929325383</v>
+        <v>4.359914712851321</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07087569412989581</v>
+        <v>0.2660353642592668</v>
       </c>
       <c r="D20">
-        <v>0.04798309429806125</v>
+        <v>0.1946184405323805</v>
       </c>
       <c r="E20">
-        <v>0.07738410250898653</v>
+        <v>0.143530407825704</v>
       </c>
       <c r="F20">
-        <v>2.036981973777586</v>
+        <v>6.744149394235535</v>
       </c>
       <c r="G20">
-        <v>2.193853530353806</v>
+        <v>7.920355991606414</v>
       </c>
       <c r="H20">
-        <v>1.357043702508236</v>
+        <v>3.756765185210895</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.08127482712186</v>
+        <v>7.097216929069845</v>
       </c>
       <c r="N20">
-        <v>1.931205827090196</v>
+        <v>4.509315214339779</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07925777293445435</v>
+        <v>0.3110193828566565</v>
       </c>
       <c r="D21">
-        <v>0.0533164871585825</v>
+        <v>0.2327270625746536</v>
       </c>
       <c r="E21">
-        <v>0.08228015559786428</v>
+        <v>0.1546773325850594</v>
       </c>
       <c r="F21">
-        <v>2.231430885989596</v>
+        <v>7.926755179734783</v>
       </c>
       <c r="G21">
-        <v>2.427470304236124</v>
+        <v>9.322015775425825</v>
       </c>
       <c r="H21">
-        <v>1.45812144246463</v>
+        <v>4.412426993764825</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.328385806561442</v>
+        <v>8.164065494448607</v>
       </c>
       <c r="N21">
-        <v>2.09358207100297</v>
+        <v>5.015278523807751</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08477228150611893</v>
+        <v>0.3427300174113839</v>
       </c>
       <c r="D22">
-        <v>0.05685151546894929</v>
+        <v>0.2604658554441244</v>
       </c>
       <c r="E22">
-        <v>0.08548397173694156</v>
+        <v>0.1614716903482787</v>
       </c>
       <c r="F22">
-        <v>2.360082668991964</v>
+        <v>8.768541477436486</v>
       </c>
       <c r="G22">
-        <v>2.58179625400328</v>
+        <v>10.32039037748189</v>
       </c>
       <c r="H22">
-        <v>1.525282098093953</v>
+        <v>4.880489117729269</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.490117769034867</v>
+        <v>8.89818457737843</v>
       </c>
       <c r="N22">
-        <v>2.199865432404977</v>
+        <v>5.349501398509119</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08182562726655362</v>
+        <v>0.3255540327400439</v>
       </c>
       <c r="D23">
-        <v>0.0549601212107973</v>
+        <v>0.2453510007600244</v>
       </c>
       <c r="E23">
-        <v>0.08377378079791242</v>
+        <v>0.157897487244071</v>
       </c>
       <c r="F23">
-        <v>2.291271291732301</v>
+        <v>8.311775203105611</v>
       </c>
       <c r="G23">
-        <v>2.49927431499691</v>
+        <v>9.778582757978199</v>
       </c>
       <c r="H23">
-        <v>1.489334243490703</v>
+        <v>4.626377886978219</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.403776013123093</v>
+        <v>8.50234359863714</v>
       </c>
       <c r="N23">
-        <v>2.143126214273479</v>
+        <v>5.170755074678937</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07073927753728526</v>
+        <v>0.2653314216828164</v>
       </c>
       <c r="D24">
-        <v>0.04789671876309853</v>
+        <v>0.1940336229117747</v>
       </c>
       <c r="E24">
-        <v>0.07730417011190127</v>
+        <v>0.1433413544455036</v>
       </c>
       <c r="F24">
-        <v>2.033829394911493</v>
+        <v>6.725754438331535</v>
       </c>
       <c r="G24">
-        <v>2.190061863416759</v>
+        <v>7.898561351128762</v>
       </c>
       <c r="H24">
-        <v>1.355409720650016</v>
+        <v>3.746585492012798</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.077239544553095</v>
+        <v>7.08027610907439</v>
       </c>
       <c r="N24">
-        <v>1.928554806062948</v>
+        <v>4.501097098300534</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05892372672171575</v>
+        <v>0.2072560142068198</v>
       </c>
       <c r="D25">
-        <v>0.04047294831426029</v>
+        <v>0.1470172070112739</v>
       </c>
       <c r="E25">
-        <v>0.07035352172209031</v>
+        <v>0.1261082345334401</v>
       </c>
       <c r="F25">
-        <v>1.762472090930004</v>
+        <v>5.220721523962226</v>
       </c>
       <c r="G25">
-        <v>1.863102442482898</v>
+        <v>6.115985030920513</v>
       </c>
       <c r="H25">
-        <v>1.215452414927768</v>
+        <v>2.915907018111398</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.725884347862831</v>
+        <v>5.654997790196745</v>
       </c>
       <c r="N25">
-        <v>1.697894012675903</v>
+        <v>3.79057434540556</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1681081456024316</v>
+        <v>0.01322101320510427</v>
       </c>
       <c r="D2">
-        <v>0.1167215361753478</v>
+        <v>0.07306993555860686</v>
       </c>
       <c r="E2">
-        <v>0.1125710402687474</v>
+        <v>0.06232107571442036</v>
       </c>
       <c r="F2">
-        <v>4.221309456451735</v>
+        <v>2.603590019927253</v>
       </c>
       <c r="G2">
-        <v>4.932675541809374</v>
+        <v>2.746396974122206</v>
       </c>
       <c r="H2">
-        <v>2.367069958456057</v>
+        <v>0.004176557530053748</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02795651253577436</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.488129901784475</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.972971186442038</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07874606489274605</v>
       </c>
       <c r="M2">
-        <v>4.661289689766477</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.274507645294051</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>3.757002661499058</v>
+      </c>
+      <c r="P2">
+        <v>3.548201097155754</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1430534434732209</v>
+        <v>0.01023830368140244</v>
       </c>
       <c r="D3">
-        <v>0.09794733632094221</v>
+        <v>0.06674813577362215</v>
       </c>
       <c r="E3">
-        <v>0.1030413118344242</v>
+        <v>0.05810937387960102</v>
       </c>
       <c r="F3">
-        <v>3.588902994312434</v>
+        <v>2.323857710839661</v>
       </c>
       <c r="G3">
-        <v>4.183869128067244</v>
+        <v>2.422181953087005</v>
       </c>
       <c r="H3">
-        <v>2.021203468864456</v>
+        <v>0.001665909210462058</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01938184036325108</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.336154180720285</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.750287673039367</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0736917813852429</v>
       </c>
       <c r="M3">
-        <v>4.009935246620543</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.927995784426798</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.277943235795107</v>
+      </c>
+      <c r="P3">
+        <v>3.180116937748693</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1282054663266905</v>
+        <v>0.00856079645383101</v>
       </c>
       <c r="D4">
-        <v>0.08705814728379124</v>
+        <v>0.062830342462739</v>
       </c>
       <c r="E4">
-        <v>0.09706127259523711</v>
+        <v>0.05549086362637645</v>
       </c>
       <c r="F4">
-        <v>3.217086044849509</v>
+        <v>2.153515251022895</v>
       </c>
       <c r="G4">
-        <v>3.743527417286714</v>
+        <v>2.224413188851258</v>
       </c>
       <c r="H4">
-        <v>1.818476763050256</v>
+        <v>0.0006653002361556304</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01479902295046287</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.243564300319207</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.614116084711981</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07055598886212877</v>
       </c>
       <c r="M4">
-        <v>3.617777394013913</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.71651038868967</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.982996989912863</v>
+      </c>
+      <c r="P4">
+        <v>2.954551043977375</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1222657221222931</v>
+        <v>0.007912838881456441</v>
       </c>
       <c r="D5">
-        <v>0.08275318913749885</v>
+        <v>0.06111633858405696</v>
       </c>
       <c r="E5">
-        <v>0.09459810592905171</v>
+        <v>0.0543776352664036</v>
       </c>
       <c r="F5">
-        <v>3.069012282070929</v>
+        <v>2.0824292457891</v>
       </c>
       <c r="G5">
-        <v>3.568132678463371</v>
+        <v>2.141637262383171</v>
       </c>
       <c r="H5">
-        <v>1.737888272484554</v>
+        <v>0.000380910523282596</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01311810261719737</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.204768441533247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.556546952805448</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06924529304160743</v>
       </c>
       <c r="M5">
-        <v>3.459542149461811</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.630608874499103</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.861198301680076</v>
+      </c>
+      <c r="P5">
+        <v>2.863335039735489</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1212855046112793</v>
+        <v>0.007810741499741258</v>
       </c>
       <c r="D6">
-        <v>0.08204562044829089</v>
+        <v>0.06069967047097435</v>
       </c>
       <c r="E6">
-        <v>0.09418767960773877</v>
+        <v>0.05414703187860859</v>
       </c>
       <c r="F6">
-        <v>3.044614336057549</v>
+        <v>2.068237501424704</v>
       </c>
       <c r="G6">
-        <v>3.539230940194244</v>
+        <v>2.124916388796947</v>
       </c>
       <c r="H6">
-        <v>1.724618362580003</v>
+        <v>0.0003388193746167723</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01289266949783041</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.196847986687999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.544329380915727</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06899922513311374</v>
       </c>
       <c r="M6">
-        <v>3.433352189353045</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.616360862227026</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.839265619871682</v>
+      </c>
+      <c r="P6">
+        <v>2.848933788099231</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1281249405170541</v>
+        <v>0.008557436770694427</v>
       </c>
       <c r="D7">
-        <v>0.08699958649137329</v>
+        <v>0.06244548529450356</v>
       </c>
       <c r="E7">
-        <v>0.09702815216569505</v>
+        <v>0.055351740661715</v>
       </c>
       <c r="F7">
-        <v>3.21507597054682</v>
+        <v>2.145961533542575</v>
       </c>
       <c r="G7">
-        <v>3.741146605322086</v>
+        <v>2.21509212178276</v>
       </c>
       <c r="H7">
-        <v>1.817382204999291</v>
+        <v>0.0006524199204749337</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01487675265102428</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.238963554517426</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.606032626051089</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07046212659459528</v>
       </c>
       <c r="M7">
-        <v>3.61563747511056</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.715350804251329</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.976707701975258</v>
+      </c>
+      <c r="P7">
+        <v>2.955349031178201</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1593425483573583</v>
+        <v>0.01215630562520476</v>
       </c>
       <c r="D8">
-        <v>0.1100973281093474</v>
+        <v>0.07040849159623974</v>
       </c>
       <c r="E8">
-        <v>0.1093158205096465</v>
+        <v>0.06070795893956316</v>
       </c>
       <c r="F8">
-        <v>3.999376730941663</v>
+        <v>2.497957764325591</v>
       </c>
       <c r="G8">
-        <v>4.669906964261287</v>
+        <v>2.623275797449423</v>
       </c>
       <c r="H8">
-        <v>2.245554125090507</v>
+        <v>0.003167381727861907</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0249273803725707</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.430090812571308</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.886239221340446</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07690625941367735</v>
       </c>
       <c r="M8">
-        <v>4.434837613400319</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.154740123974562</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>3.585736859829808</v>
+      </c>
+      <c r="P8">
+        <v>3.423910836372301</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2261328744648949</v>
+        <v>0.0206612521947549</v>
       </c>
       <c r="D9">
-        <v>0.1620312673867659</v>
+        <v>0.08644067717259674</v>
       </c>
       <c r="E9">
-        <v>0.1320717394526518</v>
+        <v>0.07123241817805059</v>
       </c>
       <c r="F9">
-        <v>5.707121855675865</v>
+        <v>3.214438440623979</v>
       </c>
       <c r="G9">
-        <v>6.691968443362839</v>
+        <v>3.452289696347634</v>
       </c>
       <c r="H9">
-        <v>3.18386722431319</v>
+        <v>0.01295700195657518</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0507248268297138</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.819609813109594</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.45548080250849</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08952346814219148</v>
       </c>
       <c r="M9">
-        <v>6.124414350031373</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4.028634365669888</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.783224862535349</v>
+      </c>
+      <c r="P9">
+        <v>4.34312894618833</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2809948616333315</v>
+        <v>0.02796580213364841</v>
       </c>
       <c r="D10">
-        <v>0.2071304406654946</v>
+        <v>0.09992482479709963</v>
       </c>
       <c r="E10">
-        <v>0.1474398670902879</v>
+        <v>0.08089490343344075</v>
       </c>
       <c r="F10">
-        <v>7.135884238417503</v>
+        <v>3.710292720315863</v>
       </c>
       <c r="G10">
-        <v>8.384541993986943</v>
+        <v>4.033785752135401</v>
       </c>
       <c r="H10">
-        <v>3.973690891030344</v>
+        <v>0.02350006339916</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.07407321295632663</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.092402126541231</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.853165715946616</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1002474130389466</v>
       </c>
       <c r="M10">
-        <v>7.455407203395964</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4.681758500969522</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>5.611362612343612</v>
+      </c>
+      <c r="P10">
+        <v>5.043713649232757</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3079821709564641</v>
+        <v>0.03052166154455627</v>
       </c>
       <c r="D11">
-        <v>0.2301083372887831</v>
+        <v>0.1243442812552473</v>
       </c>
       <c r="E11">
-        <v>0.1539813948883264</v>
+        <v>0.1088536572827437</v>
       </c>
       <c r="F11">
-        <v>7.846476463601192</v>
+        <v>3.579437069572037</v>
       </c>
       <c r="G11">
-        <v>9.226834227437791</v>
+        <v>3.969983374430484</v>
       </c>
       <c r="H11">
-        <v>4.367846199988435</v>
+        <v>0.0432196389132109</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.08155508624693919</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.054106223262949</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.817065619439703</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1299557855760618</v>
       </c>
       <c r="M11">
-        <v>8.09298876152701</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4.982298919764219</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>5.564082219967077</v>
+      </c>
+      <c r="P11">
+        <v>5.553193312150142</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3185861626720765</v>
+        <v>0.03162504991145809</v>
       </c>
       <c r="D12">
-        <v>0.2392801177529549</v>
+        <v>0.1452195739321809</v>
       </c>
       <c r="E12">
-        <v>0.1563763983585282</v>
+        <v>0.1391297341472466</v>
       </c>
       <c r="F12">
-        <v>8.127024103276625</v>
+        <v>3.375473619762772</v>
       </c>
       <c r="G12">
-        <v>9.559484842455049</v>
+        <v>3.805330881416495</v>
       </c>
       <c r="H12">
-        <v>4.52368538498547</v>
+        <v>0.08115456242232</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.08264329499303447</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.969849668222423</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.713370398609854</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1700977936808954</v>
       </c>
       <c r="M12">
-        <v>8.340556503845107</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5.096704088809133</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.355120831373966</v>
+      </c>
+      <c r="P12">
+        <v>5.840043319237452</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3162834726556838</v>
+        <v>0.03159459897931338</v>
       </c>
       <c r="D13">
-        <v>0.2372815549702807</v>
+        <v>0.1636419737850048</v>
       </c>
       <c r="E13">
-        <v>0.1558645759837951</v>
+        <v>0.1722485123688671</v>
       </c>
       <c r="F13">
-        <v>8.06603907363521</v>
+        <v>3.094173274076667</v>
       </c>
       <c r="G13">
-        <v>9.487168348053729</v>
+        <v>3.541167225662178</v>
       </c>
       <c r="H13">
-        <v>4.489798849057365</v>
+        <v>0.1345588659368246</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.07877107756219637</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.839166062500368</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.540397692325357</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2198131947723994</v>
       </c>
       <c r="M13">
-        <v>8.286935799700416</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>5.072036431739548</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>5.004635639299352</v>
+      </c>
+      <c r="P13">
+        <v>5.972188966972283</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3088462152307585</v>
+        <v>0.03109220652215328</v>
       </c>
       <c r="D14">
-        <v>0.2308526527619819</v>
+        <v>0.1753760068886407</v>
       </c>
       <c r="E14">
-        <v>0.1541801969101684</v>
+        <v>0.1973925658749707</v>
       </c>
       <c r="F14">
-        <v>7.869308386570339</v>
+        <v>2.86317079727192</v>
       </c>
       <c r="G14">
-        <v>9.253904119259971</v>
+        <v>3.311211227419619</v>
       </c>
       <c r="H14">
-        <v>4.380524306558357</v>
+        <v>0.1816784660200881</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.07399917538217426</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.726608711184213</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.387311715498555</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2606477253300099</v>
       </c>
       <c r="M14">
-        <v>8.113222882032858</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4.991698459436634</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>4.696533144861831</v>
+      </c>
+      <c r="P14">
+        <v>5.994938390481423</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3043440467676817</v>
+        <v>0.03057344680492058</v>
       </c>
       <c r="D15">
-        <v>0.2269802275977355</v>
+        <v>0.1770833886589571</v>
       </c>
       <c r="E15">
-        <v>0.1531371690118952</v>
+        <v>0.2027711773847471</v>
       </c>
       <c r="F15">
-        <v>7.750395565531505</v>
+        <v>2.788622031943703</v>
       </c>
       <c r="G15">
-        <v>9.112923657076806</v>
+        <v>3.231703021458912</v>
       </c>
       <c r="H15">
-        <v>4.31450348416837</v>
+        <v>0.1932293343606943</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07185300208799372</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.688189026563805</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.333056267823522</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2701515953484375</v>
       </c>
       <c r="M15">
-        <v>8.007670849893458</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.942570352876714</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>4.590603321066723</v>
+      </c>
+      <c r="P15">
+        <v>5.966882439070048</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2792792516554101</v>
+        <v>0.02717011708781669</v>
       </c>
       <c r="D16">
-        <v>0.2056873728405293</v>
+        <v>0.1663538891721572</v>
       </c>
       <c r="E16">
-        <v>0.1470019260359656</v>
+        <v>0.1904939473807623</v>
       </c>
       <c r="F16">
-        <v>7.090879411198955</v>
+        <v>2.635870610426139</v>
       </c>
       <c r="G16">
-        <v>8.331208325092803</v>
+        <v>3.03656867255188</v>
       </c>
       <c r="H16">
-        <v>3.948755654964657</v>
+        <v>0.1763400514858517</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.06232602025413314</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.597823908927978</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.196908390062134</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2537998213893999</v>
       </c>
       <c r="M16">
-        <v>7.414503773709157</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>4.662194877914828</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>4.31445208790835</v>
+      </c>
+      <c r="P16">
+        <v>5.632087065162409</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2644795413866206</v>
+        <v>0.02485573469870861</v>
       </c>
       <c r="D17">
-        <v>0.1933263779373107</v>
+        <v>0.1518794781604953</v>
       </c>
       <c r="E17">
-        <v>0.143111953676538</v>
+        <v>0.1672763535717223</v>
       </c>
       <c r="F17">
-        <v>6.70349837206976</v>
+        <v>2.639749639620817</v>
       </c>
       <c r="G17">
-        <v>7.872192288518079</v>
+        <v>3.007731686697724</v>
       </c>
       <c r="H17">
-        <v>3.734269885637559</v>
+        <v>0.1365978395133425</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.05764026383606335</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.587719936845673</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.172873099530634</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2184347442600796</v>
       </c>
       <c r="M17">
-        <v>7.059764693085071</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>4.49113941449508</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>4.264198774767237</v>
+      </c>
+      <c r="P17">
+        <v>5.364554870403481</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2561512792984217</v>
+        <v>0.0235111658055871</v>
       </c>
       <c r="D18">
-        <v>0.1864395640045871</v>
+        <v>0.1340353077935816</v>
       </c>
       <c r="E18">
-        <v>0.1408335019350879</v>
+        <v>0.1360895128850466</v>
       </c>
       <c r="F18">
-        <v>6.486188357380229</v>
+        <v>2.784984311445299</v>
       </c>
       <c r="G18">
-        <v>7.614738593861148</v>
+        <v>3.125106858635661</v>
       </c>
       <c r="H18">
-        <v>3.614066410365467</v>
+        <v>0.08353549967286966</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.05620779552024402</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.648584191180646</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.248202901742175</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.170751142052481</v>
       </c>
       <c r="M18">
-        <v>6.858636202137291</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4.393068455773715</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>4.406935860638853</v>
+      </c>
+      <c r="P18">
+        <v>5.124912282662081</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2533607555669732</v>
+        <v>0.02312891622657398</v>
       </c>
       <c r="D19">
-        <v>0.1841431677272425</v>
+        <v>0.1151798938618072</v>
       </c>
       <c r="E19">
-        <v>0.1400554693977831</v>
+        <v>0.1057279649038776</v>
       </c>
       <c r="F19">
-        <v>6.413486412550895</v>
+        <v>3.026525545705852</v>
       </c>
       <c r="G19">
-        <v>7.528612685729286</v>
+        <v>3.339757394257759</v>
       </c>
       <c r="H19">
-        <v>3.573871184149766</v>
+        <v>0.03974405044569096</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.05773741097420881</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.756057944307344</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.386375332521425</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1277883254911636</v>
       </c>
       <c r="M19">
-        <v>6.790998734679363</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4.359914712851321</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>4.689712831120488</v>
+      </c>
+      <c r="P19">
+        <v>4.932435203056002</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2660353642592668</v>
+        <v>0.0259317847589724</v>
       </c>
       <c r="D20">
-        <v>0.1946184405323805</v>
+        <v>0.09524850293308162</v>
       </c>
       <c r="E20">
-        <v>0.143530407825704</v>
+        <v>0.07800536476692699</v>
       </c>
       <c r="F20">
-        <v>6.744149394235535</v>
+        <v>3.555883587368527</v>
       </c>
       <c r="G20">
-        <v>7.920355991606414</v>
+        <v>3.851671575592576</v>
       </c>
       <c r="H20">
-        <v>3.756765185210895</v>
+        <v>0.02027635018982643</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.06764251212862504</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.006202626314746</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.723332431186336</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09719954787909302</v>
       </c>
       <c r="M20">
-        <v>7.097216929069845</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>4.509315214339779</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>5.376910261737123</v>
+      </c>
+      <c r="P20">
+        <v>4.866905753320111</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3110193828566565</v>
+        <v>0.03227607082000006</v>
       </c>
       <c r="D21">
-        <v>0.2327270625746536</v>
+        <v>0.1027945281220326</v>
       </c>
       <c r="E21">
-        <v>0.1546773325850594</v>
+        <v>0.08240102805486416</v>
       </c>
       <c r="F21">
-        <v>7.926755179734783</v>
+        <v>4.00851308138968</v>
       </c>
       <c r="G21">
-        <v>9.322015775425825</v>
+        <v>4.365550049392311</v>
       </c>
       <c r="H21">
-        <v>4.412426993764825</v>
+        <v>0.03035621953651102</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.08814920533804038</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.249041691829689</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.073149187453538</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1033564457905456</v>
       </c>
       <c r="M21">
-        <v>8.164065494448607</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5.015278523807751</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>6.089213533475942</v>
+      </c>
+      <c r="P21">
+        <v>5.372470541333598</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3427300174113839</v>
+        <v>0.03667897428435385</v>
       </c>
       <c r="D22">
-        <v>0.2604658554441244</v>
+        <v>0.1092327525060028</v>
       </c>
       <c r="E22">
-        <v>0.1614716903482787</v>
+        <v>0.08648793408391597</v>
       </c>
       <c r="F22">
-        <v>8.768541477436486</v>
+        <v>4.297089523813469</v>
       </c>
       <c r="G22">
-        <v>10.32039037748189</v>
+        <v>4.69848950668478</v>
       </c>
       <c r="H22">
-        <v>4.880489117729269</v>
+        <v>0.03779681976909721</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1026075945235405</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.406314070420535</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.302256213533852</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1082740047760602</v>
       </c>
       <c r="M22">
-        <v>8.89818457737843</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>5.349501398509119</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>6.537345137697173</v>
+      </c>
+      <c r="P22">
+        <v>5.711647107490251</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3255540327400439</v>
+        <v>0.03429533951215102</v>
       </c>
       <c r="D23">
-        <v>0.2453510007600244</v>
+        <v>0.1062518517050535</v>
       </c>
       <c r="E23">
-        <v>0.157897487244071</v>
+        <v>0.08445850207987959</v>
       </c>
       <c r="F23">
-        <v>8.311775203105611</v>
+        <v>4.150962089225118</v>
       </c>
       <c r="G23">
-        <v>9.778582757978199</v>
+        <v>4.530709848051345</v>
       </c>
       <c r="H23">
-        <v>4.626377886978219</v>
+        <v>0.0338008886578276</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.09475362848679314</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.327275011286702</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.188907507247151</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1057399577869731</v>
       </c>
       <c r="M23">
-        <v>8.50234359863714</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>5.170755074678937</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6.303947129671741</v>
+      </c>
+      <c r="P23">
+        <v>5.52801674017195</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2653314216828164</v>
+        <v>0.02595722977645476</v>
       </c>
       <c r="D24">
-        <v>0.1940336229117747</v>
+        <v>0.09427523316487907</v>
       </c>
       <c r="E24">
-        <v>0.1433413544455036</v>
+        <v>0.07658696944111298</v>
       </c>
       <c r="F24">
-        <v>6.725754438331535</v>
+        <v>3.592816766546804</v>
       </c>
       <c r="G24">
-        <v>7.898561351128762</v>
+        <v>3.887776233883301</v>
       </c>
       <c r="H24">
-        <v>3.746585492012798</v>
+        <v>0.02049335403533581</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.06761641058996215</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.024242002077187</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.750219529840322</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09613596281795189</v>
       </c>
       <c r="M24">
-        <v>7.08027610907439</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>4.501097098300534</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>5.411767158174797</v>
+      </c>
+      <c r="P24">
+        <v>4.838462134885788</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2072560142068198</v>
+        <v>0.01817343150757855</v>
       </c>
       <c r="D25">
-        <v>0.1470172070112739</v>
+        <v>0.08144289983970765</v>
       </c>
       <c r="E25">
-        <v>0.1261082345334401</v>
+        <v>0.06816747709896376</v>
       </c>
       <c r="F25">
-        <v>5.220721523962226</v>
+        <v>3.006324988419351</v>
       </c>
       <c r="G25">
-        <v>6.115985030920513</v>
+        <v>3.210718160527534</v>
       </c>
       <c r="H25">
-        <v>2.915907018111398</v>
+        <v>0.009655583727944568</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.04305193173992361</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.70561610125057</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.286844420688794</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08596876181394464</v>
       </c>
       <c r="M25">
-        <v>5.654997790196745</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3.79057434540556</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>4.450983060990808</v>
+      </c>
+      <c r="P25">
+        <v>4.097704318807587</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01322101320510427</v>
+        <v>0.03932033464860041</v>
       </c>
       <c r="D2">
-        <v>0.07306993555860686</v>
+        <v>0.04829300373851808</v>
       </c>
       <c r="E2">
-        <v>0.06232107571442036</v>
+        <v>0.05248624869774865</v>
       </c>
       <c r="F2">
-        <v>2.603590019927253</v>
+        <v>2.116925037463616</v>
       </c>
       <c r="G2">
-        <v>2.746396974122206</v>
+        <v>2.113001465116241</v>
       </c>
       <c r="H2">
-        <v>0.004176557530053748</v>
+        <v>0.002448952953785</v>
       </c>
       <c r="I2">
-        <v>0.02795651253577436</v>
+        <v>0.02075269682734326</v>
       </c>
       <c r="J2">
-        <v>1.488129901784475</v>
+        <v>1.252765310823207</v>
       </c>
       <c r="K2">
-        <v>1.972971186442038</v>
+        <v>1.442944298750092</v>
       </c>
       <c r="L2">
-        <v>0.07874606489274605</v>
+        <v>0.6254298655871153</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4841927788408782</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07154831561849129</v>
       </c>
       <c r="O2">
-        <v>3.757002661499058</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.548201097155754</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>3.399487495297109</v>
+      </c>
+      <c r="R2">
+        <v>3.71056315113438</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01023830368140244</v>
+        <v>0.03172545605448107</v>
       </c>
       <c r="D3">
-        <v>0.06674813577362215</v>
+        <v>0.046382385312004</v>
       </c>
       <c r="E3">
-        <v>0.05810937387960102</v>
+        <v>0.05034509960437106</v>
       </c>
       <c r="F3">
-        <v>2.323857710839661</v>
+        <v>1.908525104590296</v>
       </c>
       <c r="G3">
-        <v>2.422181953087005</v>
+        <v>1.878646189101204</v>
       </c>
       <c r="H3">
-        <v>0.001665909210462058</v>
+        <v>0.0008327894273685299</v>
       </c>
       <c r="I3">
-        <v>0.01938184036325108</v>
+        <v>0.01488849544020532</v>
       </c>
       <c r="J3">
-        <v>1.336154180720285</v>
+        <v>1.139579070570392</v>
       </c>
       <c r="K3">
-        <v>1.750287673039367</v>
+        <v>1.296786565939797</v>
       </c>
       <c r="L3">
-        <v>0.0736917813852429</v>
+        <v>0.587545941041796</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4111465724557277</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06823375017101618</v>
       </c>
       <c r="O3">
-        <v>3.277943235795107</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.180116937748693</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.974554561454156</v>
+      </c>
+      <c r="R3">
+        <v>3.317703466391265</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.00856079645383101</v>
+        <v>0.02741304387098609</v>
       </c>
       <c r="D4">
-        <v>0.062830342462739</v>
+        <v>0.0451723365946215</v>
       </c>
       <c r="E4">
-        <v>0.05549086362637645</v>
+        <v>0.04899166574263347</v>
       </c>
       <c r="F4">
-        <v>2.153515251022895</v>
+        <v>1.781031037997423</v>
       </c>
       <c r="G4">
-        <v>2.224413188851258</v>
+        <v>1.735277764816431</v>
       </c>
       <c r="H4">
-        <v>0.0006653002361556304</v>
+        <v>0.0002498058524902369</v>
       </c>
       <c r="I4">
-        <v>0.01479902295046287</v>
+        <v>0.01170858285605902</v>
       </c>
       <c r="J4">
-        <v>1.243564300319207</v>
+        <v>1.0698696633944</v>
       </c>
       <c r="K4">
-        <v>1.614116084711981</v>
+        <v>1.206775053442982</v>
       </c>
       <c r="L4">
-        <v>0.07055598886212877</v>
+        <v>0.5634649471942055</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3674893209849657</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06614763698269233</v>
       </c>
       <c r="O4">
-        <v>2.982996989912863</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.954551043977375</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.712336898156749</v>
+      </c>
+      <c r="R4">
+        <v>3.077010389561025</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007912838881456441</v>
+        <v>0.02593734692201366</v>
       </c>
       <c r="D5">
-        <v>0.06111633858405696</v>
+        <v>0.04461062687841277</v>
       </c>
       <c r="E5">
-        <v>0.0543776352664036</v>
+        <v>0.0484073911374896</v>
       </c>
       <c r="F5">
-        <v>2.0824292457891</v>
+        <v>1.727530033076988</v>
       </c>
       <c r="G5">
-        <v>2.141637262383171</v>
+        <v>1.674961535369448</v>
       </c>
       <c r="H5">
-        <v>0.000380910523282596</v>
+        <v>0.0001070345770648462</v>
       </c>
       <c r="I5">
-        <v>0.01311810261719737</v>
+        <v>0.01055931810663324</v>
       </c>
       <c r="J5">
-        <v>1.204768441533247</v>
+        <v>1.040378985172339</v>
       </c>
       <c r="K5">
-        <v>1.556546952805448</v>
+        <v>1.168295061037512</v>
       </c>
       <c r="L5">
-        <v>0.06924529304160743</v>
+        <v>0.5527444635072811</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3493883162295788</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06526740960938415</v>
       </c>
       <c r="O5">
-        <v>2.861198301680076</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.863335039735489</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.603932534483761</v>
+      </c>
+      <c r="R5">
+        <v>2.979615792428035</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007810741499741258</v>
+        <v>0.0259440726066984</v>
       </c>
       <c r="D6">
-        <v>0.06069967047097435</v>
+        <v>0.04444451105540637</v>
       </c>
       <c r="E6">
-        <v>0.05414703187860859</v>
+        <v>0.04828216064102797</v>
       </c>
       <c r="F6">
-        <v>2.068237501424704</v>
+        <v>1.716657500397361</v>
       </c>
       <c r="G6">
-        <v>2.124916388796947</v>
+        <v>1.662524746202877</v>
       </c>
       <c r="H6">
-        <v>0.0003388193746167723</v>
+        <v>8.80483081866501E-05</v>
       </c>
       <c r="I6">
-        <v>0.01289266949783041</v>
+        <v>0.01044364925098762</v>
       </c>
       <c r="J6">
-        <v>1.196847986687999</v>
+        <v>1.034230957788651</v>
       </c>
       <c r="K6">
-        <v>1.544329380915727</v>
+        <v>1.159804046220913</v>
       </c>
       <c r="L6">
-        <v>0.06899922513311374</v>
+        <v>0.5500988362447146</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3456681376893656</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06510035312755313</v>
       </c>
       <c r="O6">
-        <v>2.839265619871682</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.848933788099231</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.584426416087695</v>
+      </c>
+      <c r="R6">
+        <v>2.964145610962305</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008557436770694427</v>
+        <v>0.02789965073714029</v>
       </c>
       <c r="D7">
-        <v>0.06244548529450356</v>
+        <v>0.04485513747350467</v>
       </c>
       <c r="E7">
-        <v>0.055351740661715</v>
+        <v>0.04886927708665212</v>
       </c>
       <c r="F7">
-        <v>2.145961533542575</v>
+        <v>1.771525491854888</v>
       </c>
       <c r="G7">
-        <v>2.21509212178276</v>
+        <v>1.733731122974291</v>
       </c>
       <c r="H7">
-        <v>0.0006524199204749337</v>
+        <v>0.0002411030861488861</v>
       </c>
       <c r="I7">
-        <v>0.01487675265102428</v>
+        <v>0.01184312289788458</v>
       </c>
       <c r="J7">
-        <v>1.238963554517426</v>
+        <v>1.053544107355236</v>
       </c>
       <c r="K7">
-        <v>1.606032626051089</v>
+        <v>1.198097632625377</v>
       </c>
       <c r="L7">
-        <v>0.07046212659459528</v>
+        <v>0.5600388874302169</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3643597515192596</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06605479735188791</v>
       </c>
       <c r="O7">
-        <v>2.976707701975258</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2.955349031178201</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.704339804063025</v>
+      </c>
+      <c r="R7">
+        <v>3.078757017670881</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01215630562520476</v>
+        <v>0.0369588991516494</v>
       </c>
       <c r="D8">
-        <v>0.07040849159623974</v>
+        <v>0.04701379690292029</v>
       </c>
       <c r="E8">
-        <v>0.06070795893956316</v>
+        <v>0.05153072977158768</v>
       </c>
       <c r="F8">
-        <v>2.497957764325591</v>
+        <v>2.02656779874863</v>
       </c>
       <c r="G8">
-        <v>2.623275797449423</v>
+        <v>2.043013231092317</v>
       </c>
       <c r="H8">
-        <v>0.003167381727861907</v>
+        <v>0.001768848830016934</v>
       </c>
       <c r="I8">
-        <v>0.0249273803725707</v>
+        <v>0.01874126835701162</v>
       </c>
       <c r="J8">
-        <v>1.430090812571308</v>
+        <v>1.167672826776823</v>
       </c>
       <c r="K8">
-        <v>1.886239221340446</v>
+        <v>1.376882136966728</v>
       </c>
       <c r="L8">
-        <v>0.07690625941367735</v>
+        <v>0.6064324175328935</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4529744380124399</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.0702602634457099</v>
       </c>
       <c r="O8">
-        <v>3.585736859829808</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3.423910836372301</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>3.239530595355944</v>
+      </c>
+      <c r="R8">
+        <v>3.581433281246632</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0206612521947549</v>
+        <v>0.05719818990224468</v>
       </c>
       <c r="D9">
-        <v>0.08644067717259674</v>
+        <v>0.05171111199183187</v>
       </c>
       <c r="E9">
-        <v>0.07123241817805059</v>
+        <v>0.0567374069910036</v>
       </c>
       <c r="F9">
-        <v>3.214438440623979</v>
+        <v>2.553933675869132</v>
       </c>
       <c r="G9">
-        <v>3.452289696347634</v>
+        <v>2.646246668600355</v>
       </c>
       <c r="H9">
-        <v>0.01295700195657518</v>
+        <v>0.008393688176356606</v>
       </c>
       <c r="I9">
-        <v>0.0507248268297138</v>
+        <v>0.03588259134503602</v>
       </c>
       <c r="J9">
-        <v>1.819609813109594</v>
+        <v>1.441381613297551</v>
       </c>
       <c r="K9">
-        <v>2.45548080250849</v>
+        <v>1.745315806461065</v>
       </c>
       <c r="L9">
-        <v>0.08952346814219148</v>
+        <v>0.6985600786913011</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.6437812076345324</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07833984839528085</v>
       </c>
       <c r="O9">
-        <v>4.783224862535349</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4.34312894618833</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.295389224776685</v>
+      </c>
+      <c r="R9">
+        <v>4.564214641715353</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02796580213364841</v>
+        <v>0.0723423014004112</v>
       </c>
       <c r="D10">
-        <v>0.09992482479709963</v>
+        <v>0.05551457566227569</v>
       </c>
       <c r="E10">
-        <v>0.08089490343344075</v>
+        <v>0.0614508923588426</v>
       </c>
       <c r="F10">
-        <v>3.710292720315863</v>
+        <v>2.892413412730548</v>
       </c>
       <c r="G10">
-        <v>4.033785752135401</v>
+        <v>3.100844447917808</v>
       </c>
       <c r="H10">
-        <v>0.02350006339916</v>
+        <v>0.01565836871310378</v>
       </c>
       <c r="I10">
-        <v>0.07407321295632663</v>
+        <v>0.05095476945962396</v>
       </c>
       <c r="J10">
-        <v>2.092402126541231</v>
+        <v>1.554347951273343</v>
       </c>
       <c r="K10">
-        <v>2.853165715946616</v>
+        <v>1.982954472384307</v>
       </c>
       <c r="L10">
-        <v>0.1002474130389466</v>
+        <v>0.7505468649959539</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.7776410713329511</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.08502500702651972</v>
       </c>
       <c r="O10">
-        <v>5.611362612343612</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>5.043713649232757</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>5.00632312887862</v>
+      </c>
+      <c r="R10">
+        <v>5.318210813612779</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03052166154455627</v>
+        <v>0.0677681539518602</v>
       </c>
       <c r="D11">
-        <v>0.1243442812552473</v>
+        <v>0.06784888192250094</v>
       </c>
       <c r="E11">
-        <v>0.1088536572827437</v>
+        <v>0.07976907750451367</v>
       </c>
       <c r="F11">
-        <v>3.579437069572037</v>
+        <v>2.730290798901706</v>
       </c>
       <c r="G11">
-        <v>3.969983374430484</v>
+        <v>3.117059542964654</v>
       </c>
       <c r="H11">
-        <v>0.0432196389132109</v>
+        <v>0.0346661583583554</v>
       </c>
       <c r="I11">
-        <v>0.08155508624693919</v>
+        <v>0.05571193153505583</v>
       </c>
       <c r="J11">
-        <v>2.054106223262949</v>
+        <v>1.368033366101514</v>
       </c>
       <c r="K11">
-        <v>2.817065619439703</v>
+        <v>1.916761331641609</v>
       </c>
       <c r="L11">
-        <v>0.1299557855760618</v>
+        <v>0.711763838837939</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.7692915957386504</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1090607420793717</v>
       </c>
       <c r="O11">
-        <v>5.564082219967077</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>5.553193312150142</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>4.927655408124934</v>
+      </c>
+      <c r="R11">
+        <v>5.859075705930309</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03162504991145809</v>
+        <v>0.06089184716136486</v>
       </c>
       <c r="D12">
-        <v>0.1452195739321809</v>
+        <v>0.08038972174463765</v>
       </c>
       <c r="E12">
-        <v>0.1391297341472466</v>
+        <v>0.1027186337505839</v>
       </c>
       <c r="F12">
-        <v>3.375473619762772</v>
+        <v>2.545421256538106</v>
       </c>
       <c r="G12">
-        <v>3.805330881416495</v>
+        <v>3.021073873080667</v>
       </c>
       <c r="H12">
-        <v>0.08115456242232</v>
+        <v>0.07268309530678607</v>
       </c>
       <c r="I12">
-        <v>0.08264329499303447</v>
+        <v>0.05632877161515104</v>
       </c>
       <c r="J12">
-        <v>1.969849668222423</v>
+        <v>1.241209355364447</v>
       </c>
       <c r="K12">
-        <v>2.713370398609854</v>
+        <v>1.82891815039747</v>
       </c>
       <c r="L12">
-        <v>0.1700977936808954</v>
+        <v>0.6752211146236391</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7404469699765173</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1450816879003156</v>
       </c>
       <c r="O12">
-        <v>5.355120831373966</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>5.840043319237452</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>4.726319775670788</v>
+      </c>
+      <c r="R12">
+        <v>6.156902427943351</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03159459897931338</v>
+        <v>0.05321139026547428</v>
       </c>
       <c r="D13">
-        <v>0.1636419737850048</v>
+        <v>0.09428029280261541</v>
       </c>
       <c r="E13">
-        <v>0.1722485123688671</v>
+        <v>0.1307990873101481</v>
       </c>
       <c r="F13">
-        <v>3.094173274076667</v>
+        <v>2.330995179746552</v>
       </c>
       <c r="G13">
-        <v>3.541167225662178</v>
+        <v>2.808504930790349</v>
       </c>
       <c r="H13">
-        <v>0.1345588659368246</v>
+        <v>0.1268470527985528</v>
       </c>
       <c r="I13">
-        <v>0.07877107756219637</v>
+        <v>0.05398169722664559</v>
       </c>
       <c r="J13">
-        <v>1.839166062500368</v>
+        <v>1.168207881268216</v>
       </c>
       <c r="K13">
-        <v>2.540397692325357</v>
+        <v>1.715826313281923</v>
       </c>
       <c r="L13">
-        <v>0.2198131947723994</v>
+        <v>0.636497697719463</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.6931266618488792</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1921347655220771</v>
       </c>
       <c r="O13">
-        <v>5.004635639299352</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>5.972188966972283</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>4.419931916362899</v>
+      </c>
+      <c r="R13">
+        <v>6.280828357651615</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03109220652215328</v>
+        <v>0.0476800305519447</v>
       </c>
       <c r="D14">
-        <v>0.1753760068886407</v>
+        <v>0.1049732496142042</v>
       </c>
       <c r="E14">
-        <v>0.1973925658749707</v>
+        <v>0.1537929163657665</v>
       </c>
       <c r="F14">
-        <v>2.86317079727192</v>
+        <v>2.166423141954354</v>
       </c>
       <c r="G14">
-        <v>3.311211227419619</v>
+        <v>2.608842205604077</v>
       </c>
       <c r="H14">
-        <v>0.1816784660200881</v>
+        <v>0.1747529505979344</v>
       </c>
       <c r="I14">
-        <v>0.07399917538217426</v>
+        <v>0.05112964243277318</v>
       </c>
       <c r="J14">
-        <v>1.726608711184213</v>
+        <v>1.136829914110876</v>
       </c>
       <c r="K14">
-        <v>2.387311715498555</v>
+        <v>1.623553699879267</v>
       </c>
       <c r="L14">
-        <v>0.2606477253300099</v>
+        <v>0.6075489763249422</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6512606951058473</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2319417492305362</v>
       </c>
       <c r="O14">
-        <v>4.696533144861831</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5.994938390481423</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>4.157901389284547</v>
+      </c>
+      <c r="R14">
+        <v>6.289070302184143</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03057344680492058</v>
+        <v>0.0462078187797843</v>
       </c>
       <c r="D15">
-        <v>0.1770833886589571</v>
+        <v>0.1074247807932167</v>
       </c>
       <c r="E15">
-        <v>0.2027711773847471</v>
+        <v>0.1592782007335387</v>
       </c>
       <c r="F15">
-        <v>2.788622031943703</v>
+        <v>2.117208994080968</v>
       </c>
       <c r="G15">
-        <v>3.231703021458912</v>
+        <v>2.535456144032651</v>
       </c>
       <c r="H15">
-        <v>0.1932293343606943</v>
+        <v>0.186643408989795</v>
       </c>
       <c r="I15">
-        <v>0.07185300208799372</v>
+        <v>0.04988705694017526</v>
       </c>
       <c r="J15">
-        <v>1.688189026563805</v>
+        <v>1.136144536021078</v>
       </c>
       <c r="K15">
-        <v>2.333056267823522</v>
+        <v>1.5931220261036</v>
       </c>
       <c r="L15">
-        <v>0.2701515953484375</v>
+        <v>0.5989728101865452</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.6362459959785838</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2415950769797561</v>
       </c>
       <c r="O15">
-        <v>4.590603321066723</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>5.966882439070048</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>4.07017327662966</v>
+      </c>
+      <c r="R15">
+        <v>6.253591972088543</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02717011708781669</v>
+        <v>0.04288258323832395</v>
       </c>
       <c r="D16">
-        <v>0.1663538891721572</v>
+        <v>0.1046423750693108</v>
       </c>
       <c r="E16">
-        <v>0.1904939473807623</v>
+        <v>0.1521344382202692</v>
       </c>
       <c r="F16">
-        <v>2.635870610426139</v>
+        <v>2.042678150981786</v>
       </c>
       <c r="G16">
-        <v>3.03656867255188</v>
+        <v>2.332721753855282</v>
       </c>
       <c r="H16">
-        <v>0.1763400514858517</v>
+        <v>0.1711440782428042</v>
       </c>
       <c r="I16">
-        <v>0.06232602025413314</v>
+        <v>0.04405731037391458</v>
       </c>
       <c r="J16">
-        <v>1.597823908927978</v>
+        <v>1.197813213117371</v>
       </c>
       <c r="K16">
-        <v>2.196908390062134</v>
+        <v>1.532720784949049</v>
       </c>
       <c r="L16">
-        <v>0.2537998213893999</v>
+        <v>0.5900373457833297</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5965130069547371</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2286280307653143</v>
       </c>
       <c r="O16">
-        <v>4.31445208790835</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>5.632087065162409</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>3.854462313294121</v>
+      </c>
+      <c r="R16">
+        <v>5.88530841416906</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02485573469870861</v>
+        <v>0.04318286934278603</v>
       </c>
       <c r="D17">
-        <v>0.1518794781604953</v>
+        <v>0.09603185613938336</v>
       </c>
       <c r="E17">
-        <v>0.1672763535717223</v>
+        <v>0.1333793198536526</v>
       </c>
       <c r="F17">
-        <v>2.639749639620817</v>
+        <v>2.068220470547118</v>
       </c>
       <c r="G17">
-        <v>3.007731686697724</v>
+        <v>2.290256757111905</v>
       </c>
       <c r="H17">
-        <v>0.1365978395133425</v>
+        <v>0.1320210668139481</v>
       </c>
       <c r="I17">
-        <v>0.05764026383606335</v>
+        <v>0.04111704180950237</v>
       </c>
       <c r="J17">
-        <v>1.587719936845673</v>
+        <v>1.247792347320058</v>
       </c>
       <c r="K17">
-        <v>2.172873099530634</v>
+        <v>1.531835291457227</v>
       </c>
       <c r="L17">
-        <v>0.2184347442600796</v>
+        <v>0.5975447741202231</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5866878145216674</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1960544148991303</v>
       </c>
       <c r="O17">
-        <v>4.264198774767237</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>5.364554870403481</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>3.823373875134294</v>
+      </c>
+      <c r="R17">
+        <v>5.602216933376781</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0235111658055871</v>
+        <v>0.04668988804422014</v>
       </c>
       <c r="D18">
-        <v>0.1340353077935816</v>
+        <v>0.08334752044283533</v>
       </c>
       <c r="E18">
-        <v>0.1360895128850466</v>
+        <v>0.1069058311219955</v>
       </c>
       <c r="F18">
-        <v>2.784984311445299</v>
+        <v>2.195317276001902</v>
       </c>
       <c r="G18">
-        <v>3.125106858635661</v>
+        <v>2.37231477885868</v>
       </c>
       <c r="H18">
-        <v>0.08353549967286966</v>
+        <v>0.07903863290713531</v>
       </c>
       <c r="I18">
-        <v>0.05620779552024402</v>
+        <v>0.04006064629296091</v>
       </c>
       <c r="J18">
-        <v>1.648584191180646</v>
+        <v>1.320046394570369</v>
       </c>
       <c r="K18">
-        <v>2.248202901742175</v>
+        <v>1.592029546732675</v>
       </c>
       <c r="L18">
-        <v>0.170751142052481</v>
+        <v>0.6239708152434105</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6049603062742221</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1511357703733083</v>
       </c>
       <c r="O18">
-        <v>4.406935860638853</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>5.124912282662081</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>3.957176753347952</v>
+      </c>
+      <c r="R18">
+        <v>5.357493231720014</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02312891622657398</v>
+        <v>0.05426495605952653</v>
       </c>
       <c r="D19">
-        <v>0.1151798938618072</v>
+        <v>0.06955408126151497</v>
       </c>
       <c r="E19">
-        <v>0.1057279649038776</v>
+        <v>0.08160106034289605</v>
       </c>
       <c r="F19">
-        <v>3.026525545705852</v>
+        <v>2.392086675328784</v>
       </c>
       <c r="G19">
-        <v>3.339757394257759</v>
+        <v>2.533823893461772</v>
       </c>
       <c r="H19">
-        <v>0.03974405044569096</v>
+        <v>0.03485307182229036</v>
       </c>
       <c r="I19">
-        <v>0.05773741097420881</v>
+        <v>0.04105257661976136</v>
       </c>
       <c r="J19">
-        <v>1.756057944307344</v>
+        <v>1.409989968211761</v>
       </c>
       <c r="K19">
-        <v>2.386375332521425</v>
+        <v>1.690027053102924</v>
       </c>
       <c r="L19">
-        <v>0.1277883254911636</v>
+        <v>0.6612010129363171</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6417093852190021</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1109325508963508</v>
       </c>
       <c r="O19">
-        <v>4.689712831120488</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4.932435203056002</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>4.211818356128973</v>
+      </c>
+      <c r="R19">
+        <v>5.166937809614751</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0259317847589724</v>
+        <v>0.07116053008491718</v>
       </c>
       <c r="D20">
-        <v>0.09524850293308162</v>
+        <v>0.05435666775720094</v>
       </c>
       <c r="E20">
-        <v>0.07800536476692699</v>
+        <v>0.06016159726283643</v>
       </c>
       <c r="F20">
-        <v>3.555883587368527</v>
+        <v>2.796655264111592</v>
       </c>
       <c r="G20">
-        <v>3.851671575592576</v>
+        <v>2.936327662503487</v>
       </c>
       <c r="H20">
-        <v>0.02027635018982643</v>
+        <v>0.01348478124876351</v>
       </c>
       <c r="I20">
-        <v>0.06764251212862504</v>
+        <v>0.04731184021799084</v>
       </c>
       <c r="J20">
-        <v>2.006202626314746</v>
+        <v>1.558376506376533</v>
       </c>
       <c r="K20">
-        <v>2.723332431186336</v>
+        <v>1.910532767898857</v>
       </c>
       <c r="L20">
-        <v>0.09719954787909302</v>
+        <v>0.7334812664872743</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.7380843306067533</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08321485703272025</v>
       </c>
       <c r="O20">
-        <v>5.376910261737123</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>4.866905753320111</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.814404523415561</v>
+      </c>
+      <c r="R20">
+        <v>5.122580172218761</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03227607082000006</v>
+        <v>0.08160358542486534</v>
       </c>
       <c r="D21">
-        <v>0.1027945281220326</v>
+        <v>0.05359497844745675</v>
       </c>
       <c r="E21">
-        <v>0.08240102805486416</v>
+        <v>0.06126166935194455</v>
       </c>
       <c r="F21">
-        <v>4.00851308138968</v>
+        <v>3.047106657861946</v>
       </c>
       <c r="G21">
-        <v>4.365550049392311</v>
+        <v>3.45475387466314</v>
       </c>
       <c r="H21">
-        <v>0.03035621953651102</v>
+        <v>0.02010942938086102</v>
       </c>
       <c r="I21">
-        <v>0.08814920533804038</v>
+        <v>0.05971251622594043</v>
       </c>
       <c r="J21">
-        <v>2.249041691829689</v>
+        <v>1.439387615883902</v>
       </c>
       <c r="K21">
-        <v>3.073149187453538</v>
+        <v>2.075565501668549</v>
       </c>
       <c r="L21">
-        <v>0.1033564457905456</v>
+        <v>0.766324071518369</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.8358192252038208</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.0863698288529644</v>
       </c>
       <c r="O21">
-        <v>6.089213533475942</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>5.372470541333598</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.377843792256414</v>
+      </c>
+      <c r="R21">
+        <v>5.693383467962576</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03667897428435385</v>
+        <v>0.08706838250564886</v>
       </c>
       <c r="D22">
-        <v>0.1092327525060028</v>
+        <v>0.0538935734613375</v>
       </c>
       <c r="E22">
-        <v>0.08648793408391597</v>
+        <v>0.06271370519705854</v>
       </c>
       <c r="F22">
-        <v>4.297089523813469</v>
+        <v>3.197242737219312</v>
       </c>
       <c r="G22">
-        <v>4.69848950668478</v>
+        <v>3.805481765345263</v>
       </c>
       <c r="H22">
-        <v>0.03779681976909721</v>
+        <v>0.02496411341278071</v>
       </c>
       <c r="I22">
-        <v>0.1026075945235405</v>
+        <v>0.06816454136170069</v>
       </c>
       <c r="J22">
-        <v>2.406314070420535</v>
+        <v>1.348774497262042</v>
       </c>
       <c r="K22">
-        <v>3.302256213533852</v>
+        <v>2.178665924242949</v>
       </c>
       <c r="L22">
-        <v>0.1082740047760602</v>
+        <v>0.7856187921623956</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.8988619737416457</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.08904372955646878</v>
       </c>
       <c r="O22">
-        <v>6.537345137697173</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>5.711647107490251</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.724324699925063</v>
+      </c>
+      <c r="R22">
+        <v>6.077505873940709</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03429533951215102</v>
+        <v>0.08372576882860727</v>
       </c>
       <c r="D23">
-        <v>0.1062518517050535</v>
+        <v>0.05417305778902204</v>
       </c>
       <c r="E23">
-        <v>0.08445850207987959</v>
+        <v>0.06208751546757174</v>
       </c>
       <c r="F23">
-        <v>4.150962089225118</v>
+        <v>3.132636646957451</v>
       </c>
       <c r="G23">
-        <v>4.530709848051345</v>
+        <v>3.608897855033462</v>
       </c>
       <c r="H23">
-        <v>0.0338008886578276</v>
+        <v>0.02239935826572581</v>
       </c>
       <c r="I23">
-        <v>0.09475362848679314</v>
+        <v>0.06351389287351328</v>
       </c>
       <c r="J23">
-        <v>2.327275011286702</v>
+        <v>1.430246376633193</v>
       </c>
       <c r="K23">
-        <v>3.188907507247151</v>
+        <v>2.137011301969352</v>
       </c>
       <c r="L23">
-        <v>0.1057399577869731</v>
+        <v>0.7800730235919389</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.8705408643579347</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08772121126838073</v>
       </c>
       <c r="O23">
-        <v>6.303947129671741</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5.52801674017195</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.551370598711685</v>
+      </c>
+      <c r="R23">
+        <v>5.866718737113899</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02595722977645476</v>
+        <v>0.07067427477758059</v>
       </c>
       <c r="D24">
-        <v>0.09427523316487907</v>
+        <v>0.05372326338410005</v>
       </c>
       <c r="E24">
-        <v>0.07658696944111298</v>
+        <v>0.05927519557438998</v>
       </c>
       <c r="F24">
-        <v>3.592816766546804</v>
+        <v>2.827335275943625</v>
       </c>
       <c r="G24">
-        <v>3.887776233883301</v>
+        <v>2.963464896372358</v>
       </c>
       <c r="H24">
-        <v>0.02049335403533581</v>
+        <v>0.01361673869120572</v>
       </c>
       <c r="I24">
-        <v>0.06761641058996215</v>
+        <v>0.04705759102405871</v>
       </c>
       <c r="J24">
-        <v>2.024242002077187</v>
+        <v>1.575021585268445</v>
       </c>
       <c r="K24">
-        <v>2.750219529840322</v>
+        <v>1.930796611922915</v>
       </c>
       <c r="L24">
-        <v>0.09613596281795189</v>
+        <v>0.7412319016290212</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.7456386256866381</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.0824396711506985</v>
       </c>
       <c r="O24">
-        <v>5.411767158174797</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4.838462134885788</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.845832071619924</v>
+      </c>
+      <c r="R24">
+        <v>5.094026591791305</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01817343150757855</v>
+        <v>0.05293156816514255</v>
       </c>
       <c r="D25">
-        <v>0.08144289983970765</v>
+        <v>0.05027446131225943</v>
       </c>
       <c r="E25">
-        <v>0.06816747709896376</v>
+        <v>0.05527528343082899</v>
       </c>
       <c r="F25">
-        <v>3.006324988419351</v>
+        <v>2.405264647442991</v>
       </c>
       <c r="G25">
-        <v>3.210718160527534</v>
+        <v>2.461191403440523</v>
       </c>
       <c r="H25">
-        <v>0.009655583727944568</v>
+        <v>0.00614113361548807</v>
       </c>
       <c r="I25">
-        <v>0.04305193173992361</v>
+        <v>0.03106189364281509</v>
       </c>
       <c r="J25">
-        <v>1.70561610125057</v>
+        <v>1.379148920414821</v>
       </c>
       <c r="K25">
-        <v>2.286844420688794</v>
+        <v>1.638664706721087</v>
       </c>
       <c r="L25">
-        <v>0.08596876181394464</v>
+        <v>0.6716899079910519</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5882979057839037</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07612199737617331</v>
       </c>
       <c r="O25">
-        <v>4.450983060990808</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.097704318807587</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>4.006821082223539</v>
+      </c>
+      <c r="R25">
+        <v>4.299607626735394</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
